--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_21_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_21_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18878.53140903034</v>
+        <v>-4937.966012256946</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22362893.72529973</v>
+        <v>22239688.09816263</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2091316.173350683</v>
+        <v>2132949.240336763</v>
       </c>
     </row>
     <row r="11">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.692321952271552</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.001771374488207</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>20.16138275253149</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>10.79312537548595</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>10.79312537548595</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>10.79312537548595</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>10.79312537548595</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>10.79312537548595</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10.79312537548595</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.79312537548595</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>12.31050202731656</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>37.22140414556078</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>62.13230626380501</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>61.62651404652814</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>61.62651404652814</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>61.62651404652814</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>61.62651404652814</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>36.20981971100704</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>7.23647058199289</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>32.14737270023711</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>57.05827481848134</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>81.96917693672556</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>100.6501095686635</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>80.28507648529838</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.28507648529838</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>54.86838214977728</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>54.86838214977728</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>29.45168781425619</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>29.45168781425619</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>4.034993478735096</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>4.034993478735096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.01300219137327</v>
       </c>
     </row>
   </sheetData>
@@ -22559,49 +22561,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>408.2559037484226</v>
+        <v>408.3030322092966</v>
       </c>
       <c r="H2" t="n">
-        <v>312.9029550043414</v>
+        <v>313.3856093542684</v>
       </c>
       <c r="I2" t="n">
-        <v>107.0669144420247</v>
+        <v>108.8838344298736</v>
       </c>
       <c r="J2" t="n">
-        <v>51.88365228004648</v>
+        <v>55.88362148616</v>
       </c>
       <c r="K2" t="n">
-        <v>44.44697677306648</v>
+        <v>50.44189372798085</v>
       </c>
       <c r="L2" t="n">
-        <v>30.91197545483701</v>
+        <v>38.34920004422725</v>
       </c>
       <c r="M2" t="n">
-        <v>13.6024638049731</v>
+        <v>21.8778091604332</v>
       </c>
       <c r="N2" t="n">
-        <v>10.7932977627591</v>
+        <v>19.20254685767776</v>
       </c>
       <c r="O2" t="n">
-        <v>18.94727957188903</v>
+        <v>26.8878950339908</v>
       </c>
       <c r="P2" t="n">
-        <v>38.8232370349338</v>
+        <v>45.60036861920612</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.78320517767101</v>
+        <v>65.87254875688946</v>
       </c>
       <c r="R2" t="n">
-        <v>91.43392189486737</v>
+        <v>94.39435507525033</v>
       </c>
       <c r="S2" t="n">
-        <v>147.1829978582072</v>
+        <v>148.2569376603758</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8720524436687</v>
+        <v>218.0783572811451</v>
       </c>
       <c r="U2" t="n">
-        <v>253.133184333071</v>
+        <v>253.1369546099409</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22638,22 +22640,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.4444382301515</v>
+        <v>118.4696541797598</v>
       </c>
       <c r="H3" t="n">
-        <v>83.40852598898685</v>
+        <v>83.65205897599289</v>
       </c>
       <c r="I3" t="n">
-        <v>50.4086920797534</v>
+        <v>51.27687280091475</v>
       </c>
       <c r="J3" t="n">
-        <v>43.25669990186429</v>
+        <v>45.63905415849315</v>
       </c>
       <c r="K3" t="n">
-        <v>22.61881614878314</v>
+        <v>26.69063902916496</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.475068356827066</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22665,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.878286918971142</v>
+        <v>12.69342733144536</v>
       </c>
       <c r="Q3" t="n">
-        <v>38.0416561369513</v>
+        <v>41.26044998519077</v>
       </c>
       <c r="R3" t="n">
-        <v>68.93883907326308</v>
+        <v>70.50443987437902</v>
       </c>
       <c r="S3" t="n">
-        <v>125.8769855409459</v>
+        <v>126.3453607452921</v>
       </c>
       <c r="T3" t="n">
-        <v>173.5421130879587</v>
+        <v>173.6437510602833</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9352236303352</v>
+        <v>207.9368825743884</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -22717,49 +22719,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.2237744696828</v>
+        <v>166.2449146747757</v>
       </c>
       <c r="H4" t="n">
-        <v>150.8320506531661</v>
+        <v>151.0200062948104</v>
       </c>
       <c r="I4" t="n">
-        <v>121.3060242520837</v>
+        <v>121.9417678743324</v>
       </c>
       <c r="J4" t="n">
-        <v>57.96188428067518</v>
+        <v>59.45649678074412</v>
       </c>
       <c r="K4" t="n">
-        <v>43.45768110131544</v>
+        <v>45.91378856574659</v>
       </c>
       <c r="L4" t="n">
-        <v>35.97575015027785</v>
+        <v>39.11872209654599</v>
       </c>
       <c r="M4" t="n">
-        <v>35.7921076346076</v>
+        <v>39.10593087476303</v>
       </c>
       <c r="N4" t="n">
-        <v>29.78206965893037</v>
+        <v>33.01709758919402</v>
       </c>
       <c r="O4" t="n">
-        <v>40.84543825975317</v>
+        <v>43.83351015779508</v>
       </c>
       <c r="P4" t="n">
-        <v>47.46576429206949</v>
+        <v>50.02257600621597</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.35986075933506</v>
+        <v>71.13006466034253</v>
       </c>
       <c r="R4" t="n">
-        <v>107.0263743903882</v>
+        <v>107.9769148848387</v>
       </c>
       <c r="S4" t="n">
-        <v>194.7277824728462</v>
+        <v>195.0961985925109</v>
       </c>
       <c r="T4" t="n">
-        <v>231.876067866384</v>
+        <v>231.9663941972356</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5654362645981</v>
+        <v>282.5665893666941</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22796,49 +22798,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>408.195414220098</v>
+        <v>408.2559037484226</v>
       </c>
       <c r="H5" t="n">
-        <v>312.2834666223883</v>
+        <v>312.9029550043414</v>
       </c>
       <c r="I5" t="n">
-        <v>104.7348919012949</v>
+        <v>107.0669144420247</v>
       </c>
       <c r="J5" t="n">
-        <v>46.74967917541601</v>
+        <v>51.88365228004648</v>
       </c>
       <c r="K5" t="n">
-        <v>36.75248193446046</v>
+        <v>44.44697677306648</v>
       </c>
       <c r="L5" t="n">
-        <v>21.36627421377045</v>
+        <v>30.91197545483701</v>
       </c>
       <c r="M5" t="n">
-        <v>2.981031914565961</v>
+        <v>13.6024638049731</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>10.7932977627591</v>
       </c>
       <c r="O5" t="n">
-        <v>8.75547455640654</v>
+        <v>18.94727957188903</v>
       </c>
       <c r="P5" t="n">
-        <v>30.12476724996209</v>
+        <v>38.8232370349338</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.25101662582001</v>
+        <v>60.78320517767101</v>
       </c>
       <c r="R5" t="n">
-        <v>87.63419656125427</v>
+        <v>91.43392189486737</v>
       </c>
       <c r="S5" t="n">
-        <v>145.8045927315129</v>
+        <v>147.1829978582072</v>
       </c>
       <c r="T5" t="n">
-        <v>217.6072595334283</v>
+        <v>217.8720524436687</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1283451708051</v>
+        <v>253.133184333071</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -22875,19 +22877,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4444382301515</v>
       </c>
       <c r="H6" t="n">
-        <v>83.09595063128953</v>
+        <v>83.40852598898685</v>
       </c>
       <c r="I6" t="n">
-        <v>49.29437938314847</v>
+        <v>50.4086920797534</v>
       </c>
       <c r="J6" t="n">
-        <v>40.19894069198317</v>
+        <v>43.25669990186429</v>
       </c>
       <c r="K6" t="n">
-        <v>17.39261862637501</v>
+        <v>22.61881614878314</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22902,22 +22904,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.698038997342408</v>
+        <v>7.878286918971142</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.91032407045577</v>
+        <v>38.0416561369513</v>
       </c>
       <c r="R6" t="n">
-        <v>66.92938550216252</v>
+        <v>68.93883907326308</v>
       </c>
       <c r="S6" t="n">
-        <v>125.2758244874271</v>
+        <v>125.8769855409459</v>
       </c>
       <c r="T6" t="n">
-        <v>173.4116604295919</v>
+        <v>173.5421130879587</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9352236303352</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -22954,49 +22956,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.1966409497028</v>
+        <v>166.2237744696828</v>
       </c>
       <c r="H7" t="n">
-        <v>150.5908089937078</v>
+        <v>150.8320506531661</v>
       </c>
       <c r="I7" t="n">
-        <v>120.4900453057766</v>
+        <v>121.3060242520837</v>
       </c>
       <c r="J7" t="n">
-        <v>56.04354441809058</v>
+        <v>57.96188428067518</v>
       </c>
       <c r="K7" t="n">
-        <v>40.30525941636866</v>
+        <v>43.45768110131544</v>
       </c>
       <c r="L7" t="n">
-        <v>31.94173573434517</v>
+        <v>35.97575015027785</v>
       </c>
       <c r="M7" t="n">
-        <v>31.538805043564</v>
+        <v>35.7921076346076</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62990109690304</v>
+        <v>29.78206965893037</v>
       </c>
       <c r="O7" t="n">
-        <v>37.0102385447647</v>
+        <v>40.84543825975317</v>
       </c>
       <c r="P7" t="n">
-        <v>44.18408838467263</v>
+        <v>47.46576429206949</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.08779846355691</v>
+        <v>69.35986075933506</v>
       </c>
       <c r="R7" t="n">
-        <v>105.8063526647429</v>
+        <v>107.0263743903882</v>
       </c>
       <c r="S7" t="n">
-        <v>194.2549192201042</v>
+        <v>194.7277824728462</v>
       </c>
       <c r="T7" t="n">
-        <v>231.7601337355605</v>
+        <v>231.876067866384</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5654362645981</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23270,22 +23272,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H11" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I11" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J11" t="n">
-        <v>45.30876821055362</v>
+        <v>42.33923658722058</v>
       </c>
       <c r="K11" t="n">
-        <v>34.59292991576666</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L11" t="n">
-        <v>18.68715897392869</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>27.6834376529322</v>
+        <v>22.65217228113208</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R11" t="n">
-        <v>86.56775819371973</v>
+        <v>84.3699662871032</v>
       </c>
       <c r="S11" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23349,19 +23351,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H12" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I12" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J12" t="n">
-        <v>39.34074399253946</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K12" t="n">
-        <v>15.92582377546657</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005754</v>
       </c>
       <c r="R12" t="n">
-        <v>66.36540832016888</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S12" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T12" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -23428,49 +23430,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H13" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I13" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J13" t="n">
-        <v>55.50513938830232</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K13" t="n">
-        <v>39.42049456093674</v>
+        <v>37.59710832716641</v>
       </c>
       <c r="L13" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M13" t="n">
-        <v>30.34506479299963</v>
+        <v>27.88492012720137</v>
       </c>
       <c r="N13" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O13" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164134</v>
       </c>
       <c r="P13" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R13" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S13" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T13" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23507,22 +23509,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H14" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I14" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J14" t="n">
-        <v>45.30876821055361</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K14" t="n">
-        <v>34.59292991576666</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L14" t="n">
-        <v>18.68715897392866</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>5.895022563523497</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>27.68343765293218</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R14" t="n">
-        <v>86.56775819371971</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S14" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23586,19 +23588,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H15" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I15" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J15" t="n">
-        <v>39.34074399253945</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K15" t="n">
-        <v>15.92582377546655</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R15" t="n">
-        <v>66.36540832016887</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S15" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T15" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -23665,49 +23667,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H16" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I16" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J16" t="n">
-        <v>55.50513938830231</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K16" t="n">
-        <v>39.42049456093673</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L16" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M16" t="n">
-        <v>30.34506479299962</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N16" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O16" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P16" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R16" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S16" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T16" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23744,22 +23746,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H17" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I17" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J17" t="n">
-        <v>45.30876821055362</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K17" t="n">
-        <v>34.59292991576666</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L17" t="n">
-        <v>18.68715897392869</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>27.6834376529322</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R17" t="n">
-        <v>86.56775819371973</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S17" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23823,19 +23825,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H18" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I18" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J18" t="n">
-        <v>39.34074399253946</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K18" t="n">
-        <v>15.92582377546657</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R18" t="n">
-        <v>66.36540832016888</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S18" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T18" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -23902,49 +23904,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H19" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I19" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J19" t="n">
-        <v>55.50513938830232</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K19" t="n">
-        <v>39.42049456093674</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L19" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M19" t="n">
-        <v>30.34506479299963</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N19" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O19" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P19" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R19" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T19" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23981,22 +23983,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H20" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I20" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J20" t="n">
-        <v>45.30876821055362</v>
+        <v>42.33923658722058</v>
       </c>
       <c r="K20" t="n">
-        <v>34.59292991576666</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L20" t="n">
-        <v>18.68715897392869</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>27.6834376529322</v>
+        <v>22.65217228113208</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R20" t="n">
-        <v>86.56775819371973</v>
+        <v>84.3699662871032</v>
       </c>
       <c r="S20" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24060,19 +24062,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H21" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I21" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J21" t="n">
-        <v>39.34074399253946</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K21" t="n">
-        <v>15.92582377546657</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005754</v>
       </c>
       <c r="R21" t="n">
-        <v>66.36540832016888</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S21" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T21" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -24139,49 +24141,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H22" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I22" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J22" t="n">
-        <v>55.50513938830232</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K22" t="n">
-        <v>39.42049456093674</v>
+        <v>37.59710832716641</v>
       </c>
       <c r="L22" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M22" t="n">
-        <v>30.34506479299963</v>
+        <v>27.88492012720137</v>
       </c>
       <c r="N22" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O22" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164134</v>
       </c>
       <c r="P22" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R22" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S22" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T22" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24218,22 +24220,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H23" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I23" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J23" t="n">
-        <v>45.30876821055362</v>
+        <v>42.33923658722058</v>
       </c>
       <c r="K23" t="n">
-        <v>34.59292991576666</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L23" t="n">
-        <v>18.68715897392869</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>27.6834376529322</v>
+        <v>22.65217228113208</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R23" t="n">
-        <v>86.56775819371973</v>
+        <v>84.3699662871032</v>
       </c>
       <c r="S23" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24297,19 +24299,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H24" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I24" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J24" t="n">
-        <v>39.34074399253946</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K24" t="n">
-        <v>15.92582377546657</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005754</v>
       </c>
       <c r="R24" t="n">
-        <v>66.36540832016888</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S24" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T24" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -24376,49 +24378,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H25" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I25" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J25" t="n">
-        <v>55.50513938830232</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K25" t="n">
-        <v>39.42049456093674</v>
+        <v>37.59710832716641</v>
       </c>
       <c r="L25" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M25" t="n">
-        <v>30.34506479299963</v>
+        <v>27.88492012720137</v>
       </c>
       <c r="N25" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O25" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164134</v>
       </c>
       <c r="P25" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R25" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S25" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T25" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24455,22 +24457,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H26" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I26" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J26" t="n">
-        <v>45.30876821055362</v>
+        <v>42.33923658722058</v>
       </c>
       <c r="K26" t="n">
-        <v>34.59292991576666</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L26" t="n">
-        <v>18.68715897392869</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>27.6834376529322</v>
+        <v>22.65217228113208</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R26" t="n">
-        <v>86.56775819371973</v>
+        <v>84.3699662871032</v>
       </c>
       <c r="S26" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24534,19 +24536,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H27" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I27" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J27" t="n">
-        <v>39.34074399253946</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K27" t="n">
-        <v>15.92582377546657</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005754</v>
       </c>
       <c r="R27" t="n">
-        <v>66.36540832016888</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S27" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T27" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -24613,49 +24615,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H28" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I28" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J28" t="n">
-        <v>55.50513938830232</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K28" t="n">
-        <v>39.42049456093674</v>
+        <v>37.59710832716641</v>
       </c>
       <c r="L28" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M28" t="n">
-        <v>30.34506479299963</v>
+        <v>27.88492012720137</v>
       </c>
       <c r="N28" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O28" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164134</v>
       </c>
       <c r="P28" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R28" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S28" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T28" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24692,22 +24694,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H29" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I29" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J29" t="n">
-        <v>45.30876821055362</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K29" t="n">
-        <v>34.59292991576666</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L29" t="n">
-        <v>18.68715897392869</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>27.6834376529322</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R29" t="n">
-        <v>86.56775819371973</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S29" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24771,19 +24773,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H30" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I30" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J30" t="n">
-        <v>39.34074399253946</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K30" t="n">
-        <v>15.92582377546657</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R30" t="n">
-        <v>66.36540832016888</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S30" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T30" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24850,49 +24852,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H31" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I31" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J31" t="n">
-        <v>55.50513938830232</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K31" t="n">
-        <v>39.42049456093674</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L31" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M31" t="n">
-        <v>30.34506479299963</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N31" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O31" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P31" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R31" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S31" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T31" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24929,22 +24931,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H32" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I32" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J32" t="n">
-        <v>45.30876821055362</v>
+        <v>42.33923658722058</v>
       </c>
       <c r="K32" t="n">
-        <v>34.59292991576666</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L32" t="n">
-        <v>18.68715897392869</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>27.6834376529322</v>
+        <v>22.65217228113208</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R32" t="n">
-        <v>86.56775819371973</v>
+        <v>84.3699662871032</v>
       </c>
       <c r="S32" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -25008,19 +25010,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H33" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I33" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J33" t="n">
-        <v>39.34074399253946</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K33" t="n">
-        <v>15.92582377546657</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005754</v>
       </c>
       <c r="R33" t="n">
-        <v>66.36540832016888</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S33" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T33" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -25087,49 +25089,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H34" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I34" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J34" t="n">
-        <v>55.50513938830232</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K34" t="n">
-        <v>39.42049456093674</v>
+        <v>37.59710832716641</v>
       </c>
       <c r="L34" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M34" t="n">
-        <v>30.34506479299963</v>
+        <v>27.88492012720137</v>
       </c>
       <c r="N34" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O34" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164134</v>
       </c>
       <c r="P34" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R34" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S34" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T34" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25166,22 +25168,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H35" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I35" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J35" t="n">
-        <v>45.30876821055362</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K35" t="n">
-        <v>34.59292991576666</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L35" t="n">
-        <v>18.68715897392869</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>27.6834376529322</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R35" t="n">
-        <v>86.56775819371973</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S35" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25245,19 +25247,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H36" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I36" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J36" t="n">
-        <v>39.34074399253946</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K36" t="n">
-        <v>15.92582377546657</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R36" t="n">
-        <v>66.36540832016888</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S36" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T36" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -25324,49 +25326,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H37" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I37" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J37" t="n">
-        <v>55.50513938830232</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K37" t="n">
-        <v>39.42049456093674</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L37" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M37" t="n">
-        <v>30.34506479299963</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N37" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O37" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P37" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R37" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S37" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T37" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25403,22 +25405,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H38" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I38" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J38" t="n">
-        <v>45.30876821055362</v>
+        <v>42.33923658722058</v>
       </c>
       <c r="K38" t="n">
-        <v>34.59292991576666</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L38" t="n">
-        <v>18.68715897392869</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>27.6834376529322</v>
+        <v>22.65217228113208</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R38" t="n">
-        <v>86.56775819371973</v>
+        <v>84.3699662871032</v>
       </c>
       <c r="S38" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25482,19 +25484,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H39" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I39" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J39" t="n">
-        <v>39.34074399253946</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K39" t="n">
-        <v>15.92582377546657</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005754</v>
       </c>
       <c r="R39" t="n">
-        <v>66.36540832016888</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S39" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T39" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -25561,49 +25563,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H40" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I40" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J40" t="n">
-        <v>55.50513938830232</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K40" t="n">
-        <v>39.42049456093674</v>
+        <v>37.59710832716641</v>
       </c>
       <c r="L40" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M40" t="n">
-        <v>30.34506479299963</v>
+        <v>27.88492012720137</v>
       </c>
       <c r="N40" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O40" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164134</v>
       </c>
       <c r="P40" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R40" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S40" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T40" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25640,22 +25642,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H41" t="n">
-        <v>312.1095997976174</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I41" t="n">
-        <v>104.0803818793758</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J41" t="n">
-        <v>45.30876821055362</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K41" t="n">
-        <v>34.59292991576666</v>
+        <v>30.14237178405281</v>
       </c>
       <c r="L41" t="n">
-        <v>18.68715897392869</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>27.6834376529322</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q41" t="n">
-        <v>52.41767977011631</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R41" t="n">
-        <v>86.56775819371973</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S41" t="n">
-        <v>145.4177268441001</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5329422356927</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1269870020286</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25719,19 +25721,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>118.4029899247188</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H42" t="n">
-        <v>83.00822261809724</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I42" t="n">
-        <v>48.98163419533764</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J42" t="n">
-        <v>39.34074399253946</v>
+        <v>37.57211130101052</v>
       </c>
       <c r="K42" t="n">
-        <v>15.92582377546657</v>
+        <v>12.90294880197317</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.7508163066282</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R42" t="n">
-        <v>66.36540832016888</v>
+        <v>65.20312410024948</v>
       </c>
       <c r="S42" t="n">
-        <v>125.1071014466145</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T42" t="n">
-        <v>173.3750473305348</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -25798,49 +25800,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H43" t="n">
-        <v>150.5231016362263</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I43" t="n">
-        <v>120.261031053682</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J43" t="n">
-        <v>55.50513938830232</v>
+        <v>54.39555607531079</v>
       </c>
       <c r="K43" t="n">
-        <v>39.42049456093674</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L43" t="n">
-        <v>30.80954133327054</v>
+        <v>28.47623472395288</v>
       </c>
       <c r="M43" t="n">
-        <v>30.34506479299963</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N43" t="n">
-        <v>24.46454532135644</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O43" t="n">
-        <v>35.9338438677494</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P43" t="n">
-        <v>43.26304678555946</v>
+        <v>41.36489886270498</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.45011700163332</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R43" t="n">
-        <v>105.463938973431</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S43" t="n">
-        <v>194.1222044917894</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T43" t="n">
-        <v>231.7275954349304</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>371.327270862117</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25877,22 +25879,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.1784371103926</v>
+        <v>407.9941069995947</v>
       </c>
       <c r="H44" t="n">
-        <v>312.1095997976174</v>
+        <v>310.221829050409</v>
       </c>
       <c r="I44" t="n">
-        <v>104.0803818793758</v>
+        <v>88.28167333057058</v>
       </c>
       <c r="J44" t="n">
-        <v>45.30876821055362</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K44" t="n">
-        <v>34.59292991576666</v>
+        <v>11.14544858436605</v>
       </c>
       <c r="L44" t="n">
-        <v>18.68715897392869</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5.895022563523526</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>27.6834376529322</v>
+        <v>1.176537307564445</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.41767977011631</v>
+        <v>32.51210151769618</v>
       </c>
       <c r="R44" t="n">
-        <v>86.56775819371973</v>
+        <v>74.98883187131496</v>
       </c>
       <c r="S44" t="n">
-        <v>145.4177268441001</v>
+        <v>141.2173044442944</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5329422356927</v>
+        <v>216.7260371756751</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1269870020286</v>
+        <v>227.9497132009989</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25931,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>367.363274596439</v>
       </c>
     </row>
     <row r="45">
@@ -25956,19 +25958,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.4029899247188</v>
+        <v>116.3025932461372</v>
       </c>
       <c r="H45" t="n">
-        <v>83.00822261809724</v>
+        <v>82.05570981277423</v>
       </c>
       <c r="I45" t="n">
-        <v>48.98163419533764</v>
+        <v>45.58598227808712</v>
       </c>
       <c r="J45" t="n">
-        <v>39.34074399253946</v>
+        <v>30.02281559133009</v>
       </c>
       <c r="K45" t="n">
-        <v>15.92582377546657</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.7508163066282</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>66.36540832016888</v>
+        <v>60.2419881239143</v>
       </c>
       <c r="S45" t="n">
-        <v>125.1071014466145</v>
+        <v>98.11265228762625</v>
       </c>
       <c r="T45" t="n">
-        <v>173.3750473305348</v>
+        <v>172.9775181442987</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9324967681357</v>
+        <v>182.7634808691216</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>202.6535460158801</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -26035,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1063414608336</v>
       </c>
       <c r="H46" t="n">
-        <v>150.5231016362263</v>
+        <v>149.7879644472162</v>
       </c>
       <c r="I46" t="n">
-        <v>120.261031053682</v>
+        <v>117.7744934041466</v>
       </c>
       <c r="J46" t="n">
-        <v>55.50513938830232</v>
+        <v>49.6593705550383</v>
       </c>
       <c r="K46" t="n">
-        <v>39.42049456093674</v>
+        <v>29.81410061865641</v>
       </c>
       <c r="L46" t="n">
-        <v>30.80954133327054</v>
+        <v>18.51666445282825</v>
       </c>
       <c r="M46" t="n">
-        <v>30.34506479299963</v>
+        <v>17.38394971109511</v>
       </c>
       <c r="N46" t="n">
-        <v>24.46454532135644</v>
+        <v>11.81161658658297</v>
       </c>
       <c r="O46" t="n">
-        <v>35.9338438677494</v>
+        <v>24.24681624532572</v>
       </c>
       <c r="P46" t="n">
-        <v>43.26304678555946</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.45011700163332</v>
+        <v>59.526447627428</v>
       </c>
       <c r="R46" t="n">
-        <v>105.463938973431</v>
+        <v>101.7461592834061</v>
       </c>
       <c r="S46" t="n">
-        <v>194.1222044917894</v>
+        <v>192.6812454004474</v>
       </c>
       <c r="T46" t="n">
-        <v>231.7275954349304</v>
+        <v>231.3743086467557</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5590308277518</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>168306.1856370782</v>
+        <v>159085.1070878846</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>179709.4326602482</v>
+        <v>168306.1856370782</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182558.0068742208</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182558.0068742208</v>
+        <v>220232.1517786139</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>32914.16008714851</v>
+      </c>
+      <c r="C2" t="n">
         <v>34821.96944215408</v>
       </c>
-      <c r="C2" t="n">
-        <v>37181.2619297065</v>
-      </c>
       <c r="D2" t="n">
-        <v>37181.26192970649</v>
+        <v>37181.26192970647</v>
       </c>
       <c r="E2" t="n">
-        <v>37770.62211190772</v>
+        <v>38793.99724182838</v>
       </c>
       <c r="F2" t="n">
-        <v>37770.62211190772</v>
+        <v>38793.99724182837</v>
       </c>
       <c r="G2" t="n">
-        <v>37770.62211190771</v>
+        <v>38793.99724182838</v>
       </c>
       <c r="H2" t="n">
-        <v>37770.62211190771</v>
+        <v>38793.99724182837</v>
       </c>
       <c r="I2" t="n">
-        <v>37770.62211190772</v>
+        <v>38793.99724182837</v>
       </c>
       <c r="J2" t="n">
-        <v>37770.62211190771</v>
+        <v>38793.99724182837</v>
       </c>
       <c r="K2" t="n">
-        <v>37770.62211190772</v>
+        <v>38793.99724182837</v>
       </c>
       <c r="L2" t="n">
-        <v>37770.62211190771</v>
+        <v>38793.99724182838</v>
       </c>
       <c r="M2" t="n">
-        <v>37770.62211190772</v>
+        <v>38793.99724182837</v>
       </c>
       <c r="N2" t="n">
-        <v>37770.62211190772</v>
+        <v>38793.99724182837</v>
       </c>
       <c r="O2" t="n">
-        <v>37770.62211190772</v>
+        <v>38793.99724182838</v>
       </c>
       <c r="P2" t="n">
-        <v>37770.62211190772</v>
+        <v>45565.27278178217</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>185820.2611388459</v>
+        <v>174523.6287437367</v>
       </c>
       <c r="C3" t="n">
-        <v>13701.61901099457</v>
+        <v>10675.17359380923</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12886.26462898379</v>
       </c>
       <c r="E3" t="n">
-        <v>3392.815891084736</v>
+        <v>10384.97177469637</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30673.21102558258</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>16.59184509935592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>37575.88121519059</v>
+      </c>
+      <c r="C5" t="n">
         <v>37831.44707639565</v>
-      </c>
-      <c r="C5" t="n">
-        <v>38159.46666611726</v>
       </c>
       <c r="D5" t="n">
         <v>38159.46666611726</v>
       </c>
       <c r="E5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="F5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="G5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="H5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="I5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="J5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="K5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="L5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="M5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="N5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="O5" t="n">
-        <v>4623.929287772457</v>
+        <v>4813.658475070405</v>
       </c>
       <c r="P5" t="n">
-        <v>4623.929287772457</v>
+        <v>7153.387061545125</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188829.7387730875</v>
+        <v>-179185.3498717788</v>
       </c>
       <c r="C6" t="n">
-        <v>-14679.82374740533</v>
+        <v>-13684.6512280508</v>
       </c>
       <c r="D6" t="n">
-        <v>-978.2047364107711</v>
+        <v>-13864.46936539458</v>
       </c>
       <c r="E6" t="n">
-        <v>29753.87693305052</v>
+        <v>23595.36699206161</v>
       </c>
       <c r="F6" t="n">
-        <v>33146.69282413527</v>
+        <v>33980.33876675797</v>
       </c>
       <c r="G6" t="n">
-        <v>33146.69282413525</v>
+        <v>33980.33876675797</v>
       </c>
       <c r="H6" t="n">
-        <v>33146.69282413525</v>
+        <v>33980.33876675797</v>
       </c>
       <c r="I6" t="n">
-        <v>33146.69282413527</v>
+        <v>33980.33876675796</v>
       </c>
       <c r="J6" t="n">
-        <v>33146.69282413525</v>
+        <v>33980.33876675797</v>
       </c>
       <c r="K6" t="n">
-        <v>33146.69282413527</v>
+        <v>33980.33876675797</v>
       </c>
       <c r="L6" t="n">
-        <v>33146.69282413525</v>
+        <v>33980.33876675797</v>
       </c>
       <c r="M6" t="n">
-        <v>33146.69282413526</v>
+        <v>33980.33876675796</v>
       </c>
       <c r="N6" t="n">
-        <v>33146.69282413526</v>
+        <v>33980.33876675797</v>
       </c>
       <c r="O6" t="n">
-        <v>33146.69282413526</v>
+        <v>33980.33876675797</v>
       </c>
       <c r="P6" t="n">
-        <v>33146.69282413526</v>
+        <v>7722.082849555103</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>181.113817210578</v>
+      </c>
+      <c r="C3" t="n">
         <v>192.8370218530114</v>
-      </c>
-      <c r="C3" t="n">
-        <v>207.8837920237277</v>
       </c>
       <c r="D3" t="n">
         <v>207.8837920237277</v>
       </c>
       <c r="E3" t="n">
-        <v>212.1068480629567</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="F3" t="n">
-        <v>212.1068480629568</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="G3" t="n">
-        <v>212.1068480629567</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="H3" t="n">
-        <v>212.1068480629567</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="I3" t="n">
-        <v>212.1068480629567</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="J3" t="n">
-        <v>212.1068480629567</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="K3" t="n">
-        <v>212.1068480629567</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="L3" t="n">
-        <v>212.1068480629567</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="M3" t="n">
-        <v>212.1068480629567</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1068480629567</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="O3" t="n">
-        <v>212.1068480629567</v>
+        <v>220.8100217922204</v>
       </c>
       <c r="P3" t="n">
-        <v>212.1068480629567</v>
+        <v>257.9589631239192</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.8370218530114</v>
+        <v>181.113817210578</v>
       </c>
       <c r="C3" t="n">
+        <v>11.7232046424335</v>
+      </c>
+      <c r="D3" t="n">
         <v>15.04677017071626</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>4.22305603922905</v>
+        <v>12.92622976849273</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>37.14894133169881</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7752242084543167</v>
+        <v>0.7280957475802123</v>
       </c>
       <c r="H2" t="n">
-        <v>7.939264924832774</v>
+        <v>7.456610574905852</v>
       </c>
       <c r="I2" t="n">
-        <v>29.88683129643507</v>
+        <v>28.06991130858616</v>
       </c>
       <c r="J2" t="n">
-        <v>65.79618566229962</v>
+        <v>61.79621645618609</v>
       </c>
       <c r="K2" t="n">
-        <v>98.61142640617088</v>
+        <v>92.6165094512565</v>
       </c>
       <c r="L2" t="n">
-        <v>122.3361942756547</v>
+        <v>114.8989696862645</v>
       </c>
       <c r="M2" t="n">
-        <v>136.1225877927542</v>
+        <v>127.8472424372941</v>
       </c>
       <c r="N2" t="n">
-        <v>138.325193575025</v>
+        <v>129.9159444801063</v>
       </c>
       <c r="O2" t="n">
-        <v>130.6165578522074</v>
+        <v>122.6759423901056</v>
       </c>
       <c r="P2" t="n">
-        <v>111.4782102059914</v>
+        <v>104.7010786217191</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.71549324072116</v>
+        <v>78.62614966150271</v>
       </c>
       <c r="R2" t="n">
-        <v>48.69667768431852</v>
+        <v>45.73624450393555</v>
       </c>
       <c r="S2" t="n">
-        <v>17.66542165015276</v>
+        <v>16.59148184798411</v>
       </c>
       <c r="T2" t="n">
-        <v>3.393543972508773</v>
+        <v>3.187239135032381</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06201793667634533</v>
+        <v>0.05824765980641697</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4147815187027039</v>
+        <v>0.3895655690944507</v>
       </c>
       <c r="H3" t="n">
-        <v>4.00591624641822</v>
+        <v>3.762383259412196</v>
       </c>
       <c r="I3" t="n">
-        <v>14.2808549202466</v>
+        <v>13.41267419908526</v>
       </c>
       <c r="J3" t="n">
-        <v>39.18775743146906</v>
+        <v>36.80540317484019</v>
       </c>
       <c r="K3" t="n">
-        <v>66.97811918455021</v>
+        <v>62.90629630416839</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>84.58527850009116</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
@@ -31145,22 +31147,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>79.20507790034351</v>
+        <v>74.38993748786929</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.9464970189627</v>
+        <v>49.72770317072322</v>
       </c>
       <c r="R3" t="n">
-        <v>25.7528385033135</v>
+        <v>24.18723770219757</v>
       </c>
       <c r="S3" t="n">
-        <v>7.70438478818399</v>
+        <v>7.236009583837708</v>
       </c>
       <c r="T3" t="n">
-        <v>1.671860595121863</v>
+        <v>1.570222622797369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02728825780938842</v>
+        <v>0.02562931375621387</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3477388918660861</v>
+        <v>0.3265986867731733</v>
       </c>
       <c r="H4" t="n">
-        <v>3.091714874954841</v>
+        <v>2.903759233310579</v>
       </c>
       <c r="I4" t="n">
-        <v>10.45745685720921</v>
+        <v>9.821713234960523</v>
       </c>
       <c r="J4" t="n">
-        <v>24.58513965493229</v>
+        <v>23.09052715486335</v>
       </c>
       <c r="K4" t="n">
-        <v>40.40093670953254</v>
+        <v>37.9448292451014</v>
       </c>
       <c r="L4" t="n">
-        <v>51.69928943252704</v>
+        <v>48.55631748625889</v>
       </c>
       <c r="M4" t="n">
-        <v>54.50965193133567</v>
+        <v>51.19582869118025</v>
       </c>
       <c r="N4" t="n">
-        <v>53.2135342434712</v>
+        <v>49.97850631320755</v>
       </c>
       <c r="O4" t="n">
-        <v>49.15131173394464</v>
+        <v>46.16323983590273</v>
       </c>
       <c r="P4" t="n">
-        <v>42.05743833987644</v>
+        <v>39.50062662572996</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.11839029980473</v>
+        <v>27.34818639879727</v>
       </c>
       <c r="R4" t="n">
-        <v>15.63560508336056</v>
+        <v>14.68506458891013</v>
       </c>
       <c r="S4" t="n">
-        <v>6.060140506429881</v>
+        <v>5.691724386765209</v>
       </c>
       <c r="T4" t="n">
-        <v>1.485793447064186</v>
+        <v>1.395467116212649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01896757591996836</v>
+        <v>0.01781447382399129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.7752242084543167</v>
       </c>
       <c r="H5" t="n">
-        <v>8.558753306785931</v>
+        <v>7.939264924832774</v>
       </c>
       <c r="I5" t="n">
-        <v>32.21885383716488</v>
+        <v>29.88683129643507</v>
       </c>
       <c r="J5" t="n">
-        <v>70.93015876693009</v>
+        <v>65.79618566229962</v>
       </c>
       <c r="K5" t="n">
-        <v>106.3059212447769</v>
+        <v>98.61142640617088</v>
       </c>
       <c r="L5" t="n">
-        <v>131.8818955167212</v>
+        <v>122.3361942756547</v>
       </c>
       <c r="M5" t="n">
-        <v>146.7440196831613</v>
+        <v>136.1225877927542</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>138.325193575025</v>
       </c>
       <c r="O5" t="n">
-        <v>140.8083628676899</v>
+        <v>130.6165578522074</v>
       </c>
       <c r="P5" t="n">
-        <v>120.1766799909631</v>
+        <v>111.4782102059914</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.24768179257215</v>
+        <v>83.71549324072116</v>
       </c>
       <c r="R5" t="n">
-        <v>52.49640301793161</v>
+        <v>48.69667768431852</v>
       </c>
       <c r="S5" t="n">
-        <v>19.04382677684702</v>
+        <v>17.66542165015276</v>
       </c>
       <c r="T5" t="n">
-        <v>3.658336882749217</v>
+        <v>3.393543972508773</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06201793667634533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4147815187027039</v>
       </c>
       <c r="H6" t="n">
-        <v>4.318491604115551</v>
+        <v>4.00591624641822</v>
       </c>
       <c r="I6" t="n">
-        <v>15.39516761685153</v>
+        <v>14.2808549202466</v>
       </c>
       <c r="J6" t="n">
-        <v>42.24551664135018</v>
+        <v>39.18775743146906</v>
       </c>
       <c r="K6" t="n">
-        <v>72.20431670695834</v>
+        <v>66.97811918455021</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
@@ -31382,22 +31384,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>85.38532582197224</v>
+        <v>79.20507790034351</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.07782908545822</v>
+        <v>52.9464970189627</v>
       </c>
       <c r="R6" t="n">
-        <v>27.76229207441406</v>
+        <v>25.7528385033135</v>
       </c>
       <c r="S6" t="n">
-        <v>8.305545841702701</v>
+        <v>7.70438478818399</v>
       </c>
       <c r="T6" t="n">
-        <v>1.802313253488733</v>
+        <v>1.671860595121863</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.02728825780938842</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3477388918660861</v>
       </c>
       <c r="H7" t="n">
-        <v>3.33295653441321</v>
+        <v>3.091714874954841</v>
       </c>
       <c r="I7" t="n">
-        <v>11.27343580351625</v>
+        <v>10.45745685720921</v>
       </c>
       <c r="J7" t="n">
-        <v>26.50347951751689</v>
+        <v>24.58513965493229</v>
       </c>
       <c r="K7" t="n">
-        <v>43.55335839447933</v>
+        <v>40.40093670953254</v>
       </c>
       <c r="L7" t="n">
-        <v>55.73330384845972</v>
+        <v>51.69928943252704</v>
       </c>
       <c r="M7" t="n">
-        <v>58.76295452237927</v>
+        <v>54.50965193133567</v>
       </c>
       <c r="N7" t="n">
-        <v>57.36570280549853</v>
+        <v>53.2135342434712</v>
       </c>
       <c r="O7" t="n">
-        <v>52.9865114489331</v>
+        <v>49.15131173394464</v>
       </c>
       <c r="P7" t="n">
-        <v>45.33911424727331</v>
+        <v>42.05743833987644</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.39045259558288</v>
+        <v>29.11839029980473</v>
       </c>
       <c r="R7" t="n">
-        <v>16.85562680900585</v>
+        <v>15.63560508336056</v>
       </c>
       <c r="S7" t="n">
-        <v>6.533003759171899</v>
+        <v>6.060140506429881</v>
       </c>
       <c r="T7" t="n">
-        <v>1.601727577887737</v>
+        <v>1.485793447064186</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.01896757591996836</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8876784795667146</v>
       </c>
       <c r="H11" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I11" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J11" t="n">
-        <v>72.37106973179247</v>
+        <v>75.34060135512551</v>
       </c>
       <c r="K11" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L11" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M11" t="n">
         <v>149.7250515977273</v>
@@ -31774,25 +31776,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R11" t="n">
-        <v>53.56284138546616</v>
+        <v>55.76063329208269</v>
       </c>
       <c r="S11" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T11" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H12" t="n">
-        <v>4.406219617307838</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I12" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J12" t="n">
-        <v>43.10371334079389</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K12" t="n">
-        <v>73.67111155786678</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
@@ -31859,19 +31861,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.23733684928579</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R12" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S12" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623141</v>
       </c>
       <c r="T12" t="n">
-        <v>1.838926352545822</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H13" t="n">
-        <v>3.40066389189462</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I13" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J13" t="n">
-        <v>27.04188454730515</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K13" t="n">
-        <v>44.43812324991125</v>
+        <v>46.26150948368158</v>
       </c>
       <c r="L13" t="n">
-        <v>56.86549824953434</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M13" t="n">
-        <v>59.95669477294364</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N13" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O13" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205646</v>
       </c>
       <c r="P13" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R13" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728397</v>
       </c>
       <c r="S13" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552236</v>
       </c>
       <c r="T13" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8526908464842476</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H14" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I14" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J14" t="n">
-        <v>72.37106973179249</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K14" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L14" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M14" t="n">
         <v>149.7250515977273</v>
@@ -32011,25 +32013,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q14" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R14" t="n">
-        <v>53.56284138546617</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S14" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T14" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0682152677187398</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4562298241354165</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H15" t="n">
-        <v>4.406219617307838</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I15" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J15" t="n">
-        <v>43.1037133407939</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K15" t="n">
-        <v>73.67111155786679</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L15" t="n">
         <v>90.06034685691823</v>
@@ -32096,19 +32098,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.2373368492858</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R15" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S15" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T15" t="n">
-        <v>1.838926352545823</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H16" t="n">
-        <v>3.400663891894621</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I16" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J16" t="n">
-        <v>27.04188454730516</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K16" t="n">
-        <v>44.43812324991126</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L16" t="n">
-        <v>56.86549824953435</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M16" t="n">
-        <v>59.95669477294365</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N16" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O16" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P16" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R16" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S16" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T16" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0208629686619302</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H17" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I17" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J17" t="n">
-        <v>72.37106973179247</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K17" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L17" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M17" t="n">
         <v>149.7250515977273</v>
@@ -32248,25 +32250,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O17" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P17" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q17" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R17" t="n">
-        <v>53.56284138546616</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S17" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T17" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H18" t="n">
-        <v>4.406219617307838</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I18" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J18" t="n">
-        <v>43.10371334079389</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K18" t="n">
-        <v>73.67111155786678</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L18" t="n">
         <v>90.06034685691823</v>
@@ -32333,19 +32335,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.23733684928579</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R18" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S18" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T18" t="n">
-        <v>1.838926352545822</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H19" t="n">
-        <v>3.40066389189462</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I19" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J19" t="n">
-        <v>27.04188454730515</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K19" t="n">
-        <v>44.43812324991125</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L19" t="n">
-        <v>56.86549824953434</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M19" t="n">
-        <v>59.95669477294364</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N19" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O19" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P19" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R19" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S19" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T19" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8876784795667146</v>
       </c>
       <c r="H20" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I20" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J20" t="n">
-        <v>72.37106973179247</v>
+        <v>75.34060135512551</v>
       </c>
       <c r="K20" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L20" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M20" t="n">
         <v>149.7250515977273</v>
@@ -32485,25 +32487,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q20" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R20" t="n">
-        <v>53.56284138546616</v>
+        <v>55.76063329208269</v>
       </c>
       <c r="S20" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T20" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H21" t="n">
-        <v>4.406219617307838</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I21" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J21" t="n">
-        <v>43.10371334079389</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K21" t="n">
-        <v>73.67111155786678</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L21" t="n">
         <v>90.06034685691823</v>
@@ -32570,19 +32572,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.23733684928579</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R21" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S21" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623141</v>
       </c>
       <c r="T21" t="n">
-        <v>1.838926352545822</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H22" t="n">
-        <v>3.40066389189462</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I22" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J22" t="n">
-        <v>27.04188454730515</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K22" t="n">
-        <v>44.43812324991125</v>
+        <v>46.26150948368158</v>
       </c>
       <c r="L22" t="n">
-        <v>56.86549824953434</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M22" t="n">
-        <v>59.95669477294364</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N22" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O22" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205646</v>
       </c>
       <c r="P22" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R22" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728397</v>
       </c>
       <c r="S22" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552236</v>
       </c>
       <c r="T22" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8876784795667146</v>
       </c>
       <c r="H23" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I23" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J23" t="n">
-        <v>72.37106973179247</v>
+        <v>75.34060135512551</v>
       </c>
       <c r="K23" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L23" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M23" t="n">
         <v>149.7250515977273</v>
@@ -32722,25 +32724,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q23" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R23" t="n">
-        <v>53.56284138546616</v>
+        <v>55.76063329208269</v>
       </c>
       <c r="S23" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T23" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H24" t="n">
-        <v>4.406219617307838</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I24" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J24" t="n">
-        <v>43.10371334079389</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K24" t="n">
-        <v>73.67111155786678</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L24" t="n">
         <v>90.06034685691823</v>
@@ -32807,19 +32809,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.23733684928579</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R24" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S24" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623141</v>
       </c>
       <c r="T24" t="n">
-        <v>1.838926352545822</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H25" t="n">
-        <v>3.40066389189462</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I25" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J25" t="n">
-        <v>27.04188454730515</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K25" t="n">
-        <v>44.43812324991125</v>
+        <v>46.26150948368158</v>
       </c>
       <c r="L25" t="n">
-        <v>56.86549824953434</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M25" t="n">
-        <v>59.95669477294364</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N25" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O25" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205646</v>
       </c>
       <c r="P25" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R25" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728397</v>
       </c>
       <c r="S25" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552236</v>
       </c>
       <c r="T25" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8876784795667146</v>
       </c>
       <c r="H26" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I26" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J26" t="n">
-        <v>72.37106973179247</v>
+        <v>75.34060135512551</v>
       </c>
       <c r="K26" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L26" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M26" t="n">
         <v>149.7250515977273</v>
@@ -32959,25 +32961,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q26" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R26" t="n">
-        <v>53.56284138546616</v>
+        <v>55.76063329208269</v>
       </c>
       <c r="S26" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T26" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H27" t="n">
-        <v>4.406219617307838</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I27" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J27" t="n">
-        <v>43.10371334079389</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K27" t="n">
-        <v>73.67111155786678</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
@@ -33044,19 +33046,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.23733684928579</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R27" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S27" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623141</v>
       </c>
       <c r="T27" t="n">
-        <v>1.838926352545822</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H28" t="n">
-        <v>3.40066389189462</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I28" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J28" t="n">
-        <v>27.04188454730515</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K28" t="n">
-        <v>44.43812324991125</v>
+        <v>46.26150948368158</v>
       </c>
       <c r="L28" t="n">
-        <v>56.86549824953434</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M28" t="n">
-        <v>59.95669477294364</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N28" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O28" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205646</v>
       </c>
       <c r="P28" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R28" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728397</v>
       </c>
       <c r="S28" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552236</v>
       </c>
       <c r="T28" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H29" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I29" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J29" t="n">
-        <v>72.37106973179247</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K29" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L29" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M29" t="n">
         <v>149.7250515977273</v>
@@ -33196,25 +33198,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q29" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R29" t="n">
-        <v>53.56284138546616</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S29" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T29" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H30" t="n">
-        <v>4.406219617307838</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I30" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J30" t="n">
-        <v>43.10371334079389</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K30" t="n">
-        <v>73.67111155786678</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L30" t="n">
         <v>90.06034685691823</v>
@@ -33281,19 +33283,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.23733684928579</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R30" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S30" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T30" t="n">
-        <v>1.838926352545822</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H31" t="n">
-        <v>3.40066389189462</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I31" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J31" t="n">
-        <v>27.04188454730515</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K31" t="n">
-        <v>44.43812324991125</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L31" t="n">
-        <v>56.86549824953434</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M31" t="n">
-        <v>59.95669477294364</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N31" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O31" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P31" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R31" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S31" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T31" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8876784795667146</v>
       </c>
       <c r="H32" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I32" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J32" t="n">
-        <v>72.37106973179247</v>
+        <v>75.34060135512551</v>
       </c>
       <c r="K32" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L32" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M32" t="n">
         <v>149.7250515977273</v>
@@ -33433,25 +33435,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P32" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q32" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R32" t="n">
-        <v>53.56284138546616</v>
+        <v>55.76063329208269</v>
       </c>
       <c r="S32" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T32" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H33" t="n">
-        <v>4.406219617307838</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I33" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J33" t="n">
-        <v>43.10371334079389</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K33" t="n">
-        <v>73.67111155786678</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
@@ -33518,19 +33520,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.23733684928579</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R33" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S33" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623141</v>
       </c>
       <c r="T33" t="n">
-        <v>1.838926352545822</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H34" t="n">
-        <v>3.40066389189462</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I34" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J34" t="n">
-        <v>27.04188454730515</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K34" t="n">
-        <v>44.43812324991125</v>
+        <v>46.26150948368158</v>
       </c>
       <c r="L34" t="n">
-        <v>56.86549824953434</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M34" t="n">
-        <v>59.95669477294364</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N34" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O34" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205646</v>
       </c>
       <c r="P34" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R34" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728397</v>
       </c>
       <c r="S34" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552236</v>
       </c>
       <c r="T34" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H35" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I35" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J35" t="n">
-        <v>72.37106973179247</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K35" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L35" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M35" t="n">
         <v>149.7250515977273</v>
@@ -33670,25 +33672,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q35" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R35" t="n">
-        <v>53.56284138546616</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S35" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T35" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H36" t="n">
-        <v>4.406219617307838</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I36" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J36" t="n">
-        <v>43.10371334079389</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K36" t="n">
-        <v>73.67111155786678</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L36" t="n">
         <v>90.06034685691823</v>
@@ -33755,19 +33757,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.23733684928579</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R36" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S36" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T36" t="n">
-        <v>1.838926352545822</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H37" t="n">
-        <v>3.40066389189462</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I37" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J37" t="n">
-        <v>27.04188454730515</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K37" t="n">
-        <v>44.43812324991125</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L37" t="n">
-        <v>56.86549824953434</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M37" t="n">
-        <v>59.95669477294364</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N37" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O37" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P37" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R37" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S37" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T37" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8876784795667146</v>
       </c>
       <c r="H38" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I38" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J38" t="n">
-        <v>72.37106973179247</v>
+        <v>75.34060135512551</v>
       </c>
       <c r="K38" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L38" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M38" t="n">
         <v>149.7250515977273</v>
@@ -33907,25 +33909,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q38" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R38" t="n">
-        <v>53.56284138546616</v>
+        <v>55.76063329208269</v>
       </c>
       <c r="S38" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T38" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H39" t="n">
-        <v>4.406219617307838</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I39" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J39" t="n">
-        <v>43.10371334079389</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K39" t="n">
-        <v>73.67111155786678</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
@@ -33992,19 +33994,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.23733684928579</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R39" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S39" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623141</v>
       </c>
       <c r="T39" t="n">
-        <v>1.838926352545822</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H40" t="n">
-        <v>3.40066389189462</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I40" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J40" t="n">
-        <v>27.04188454730515</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K40" t="n">
-        <v>44.43812324991125</v>
+        <v>46.26150948368158</v>
       </c>
       <c r="L40" t="n">
-        <v>56.86549824953434</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M40" t="n">
-        <v>59.95669477294364</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N40" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O40" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205646</v>
       </c>
       <c r="P40" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R40" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728397</v>
       </c>
       <c r="S40" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552236</v>
       </c>
       <c r="T40" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H41" t="n">
-        <v>8.732620131556803</v>
+        <v>9.090937228862616</v>
       </c>
       <c r="I41" t="n">
-        <v>32.87336385908399</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J41" t="n">
-        <v>72.37106973179247</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K41" t="n">
-        <v>108.4654732634707</v>
+        <v>112.9160313951845</v>
       </c>
       <c r="L41" t="n">
-        <v>134.561010756563</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M41" t="n">
         <v>149.7250515977273</v>
@@ -34144,25 +34146,25 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
-        <v>143.6688148605729</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
-        <v>122.618009587993</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.08101864827586</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R41" t="n">
-        <v>53.56284138546616</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S41" t="n">
-        <v>19.43069266425981</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T41" t="n">
-        <v>3.732654180484796</v>
+        <v>3.885812544303294</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H42" t="n">
-        <v>4.406219617307838</v>
+        <v>4.587015735721409</v>
       </c>
       <c r="I42" t="n">
-        <v>15.70791280466237</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J42" t="n">
-        <v>43.10371334079389</v>
+        <v>44.87234603232283</v>
       </c>
       <c r="K42" t="n">
-        <v>73.67111155786678</v>
+        <v>76.69398653136018</v>
       </c>
       <c r="L42" t="n">
         <v>90.06034685691823</v>
@@ -34229,19 +34231,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.23733684928579</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R42" t="n">
-        <v>28.32626925640771</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S42" t="n">
-        <v>8.474268882515295</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T42" t="n">
-        <v>1.838926352545822</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H43" t="n">
-        <v>3.40066389189462</v>
+        <v>3.540200021521175</v>
       </c>
       <c r="I43" t="n">
-        <v>11.50245005561084</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J43" t="n">
-        <v>27.04188454730515</v>
+        <v>28.15146786029668</v>
       </c>
       <c r="K43" t="n">
-        <v>44.43812324991125</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L43" t="n">
-        <v>56.86549824953434</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M43" t="n">
-        <v>59.95669477294364</v>
+        <v>62.41683943874189</v>
       </c>
       <c r="N43" t="n">
-        <v>58.53105858104513</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O43" t="n">
-        <v>54.0629061259484</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P43" t="n">
-        <v>46.26015584638647</v>
+        <v>48.15830376924096</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.02813405750647</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R43" t="n">
-        <v>17.19804050031777</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S43" t="n">
-        <v>6.665718487486687</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T43" t="n">
-        <v>1.634265878517863</v>
+        <v>1.701323118726943</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8526908464842475</v>
+        <v>1.037020957282087</v>
       </c>
       <c r="H44" t="n">
-        <v>8.732620131556803</v>
+        <v>10.62039087876517</v>
       </c>
       <c r="I44" t="n">
-        <v>32.87336385908399</v>
+        <v>39.97975045561768</v>
       </c>
       <c r="J44" t="n">
-        <v>72.37106973179247</v>
+        <v>88.01585747312056</v>
       </c>
       <c r="K44" t="n">
-        <v>108.4654732634707</v>
+        <v>131.9129545948713</v>
       </c>
       <c r="L44" t="n">
-        <v>134.561010756563</v>
+        <v>163.649684716293</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>174.8875789898931</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>174.28101872995</v>
       </c>
       <c r="O44" t="n">
-        <v>143.6688148605729</v>
+        <v>174.7263648162623</v>
       </c>
       <c r="P44" t="n">
-        <v>122.618009587993</v>
+        <v>149.1249099333608</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.08101864827586</v>
+        <v>111.986596900696</v>
       </c>
       <c r="R44" t="n">
-        <v>53.56284138546616</v>
+        <v>65.14176770787093</v>
       </c>
       <c r="S44" t="n">
-        <v>19.43069266425981</v>
+        <v>23.63111506406557</v>
       </c>
       <c r="T44" t="n">
-        <v>3.732654180484796</v>
+        <v>4.539559240502336</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.0829616765825669</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.5548551282288073</v>
       </c>
       <c r="H45" t="n">
-        <v>4.406219617307838</v>
+        <v>5.358732422630851</v>
       </c>
       <c r="I45" t="n">
-        <v>15.70791280466237</v>
+        <v>19.10356472191289</v>
       </c>
       <c r="J45" t="n">
-        <v>43.10371334079389</v>
+        <v>52.42164174200325</v>
       </c>
       <c r="K45" t="n">
-        <v>73.67111155786678</v>
+        <v>89.59693533333333</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>95.33657755451381</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>117.5496494414778</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>110.5346402463325</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>117.8500862810548</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>105.9529937404641</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.23733684928579</v>
+        <v>70.8267704033825</v>
       </c>
       <c r="R45" t="n">
-        <v>28.32626925640771</v>
+        <v>34.44968945266228</v>
       </c>
       <c r="S45" t="n">
-        <v>8.474268882515295</v>
+        <v>10.30619064933771</v>
       </c>
       <c r="T45" t="n">
-        <v>1.838926352545822</v>
+        <v>2.236455538781903</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03650362685715839</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.4651719007152641</v>
       </c>
       <c r="H46" t="n">
-        <v>3.40066389189462</v>
+        <v>4.135801080904805</v>
       </c>
       <c r="I46" t="n">
-        <v>11.50245005561084</v>
+        <v>13.98898770514631</v>
       </c>
       <c r="J46" t="n">
-        <v>27.04188454730515</v>
+        <v>32.88765338056917</v>
       </c>
       <c r="K46" t="n">
-        <v>44.43812324991125</v>
+        <v>54.04451719219158</v>
       </c>
       <c r="L46" t="n">
-        <v>56.86549824953434</v>
+        <v>69.15837512997663</v>
       </c>
       <c r="M46" t="n">
-        <v>59.95669477294364</v>
+        <v>72.91780985484816</v>
       </c>
       <c r="N46" t="n">
-        <v>58.53105858104513</v>
+        <v>71.1839873158186</v>
       </c>
       <c r="O46" t="n">
-        <v>54.0629061259484</v>
+        <v>65.74993374837209</v>
       </c>
       <c r="P46" t="n">
-        <v>46.26015584638647</v>
+        <v>56.26042697378065</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.02813405750647</v>
+        <v>38.9518034317118</v>
       </c>
       <c r="R46" t="n">
-        <v>17.19804050031777</v>
+        <v>20.91582019034269</v>
       </c>
       <c r="S46" t="n">
-        <v>6.665718487486687</v>
+        <v>8.106677578828736</v>
       </c>
       <c r="T46" t="n">
-        <v>1.634265878517863</v>
+        <v>1.987552666692491</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.02537301276628716</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>10.4015149858013</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>5.276230697595576</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>18.86962892114946</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_21_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_21_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4937.966012256946</v>
+        <v>-17705.77526919884</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22239688.09816263</v>
+        <v>22280216.98303718</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2132949.240336763</v>
+        <v>2123270.811520276</v>
       </c>
     </row>
     <row r="11">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.692321952271552</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.001771374488207</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.16138275253149</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10.79312537548595</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>10.79312537548595</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>10.79312537548595</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>10.79312537548595</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>10.79312537548595</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>10.79312537548595</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>10.79312537548595</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>12.31050202731656</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>37.22140414556078</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>62.13230626380501</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>87.04320838204923</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>87.04320838204923</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>87.04320838204923</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>87.04320838204923</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>87.04320838204923</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>87.04320838204923</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>61.62651404652814</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>61.62651404652814</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>61.62651404652814</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>61.62651404652814</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>36.20981971100704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.034993478735096</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>4.034993478735096</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>4.034993478735096</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>4.034993478735096</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>4.034993478735096</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>7.23647058199289</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>32.14737270023711</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>57.05827481848134</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>81.96917693672556</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>100.6501095686635</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>80.28507648529838</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.28507648529838</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>54.86838214977728</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>54.86838214977728</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>29.45168781425619</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>29.45168781425619</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>4.034993478735096</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>4.034993478735096</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>4.034993478735096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.01300219137327</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22561,49 +22561,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>408.3030322092966</v>
+        <v>408.2559037484226</v>
       </c>
       <c r="H2" t="n">
-        <v>313.3856093542684</v>
+        <v>312.9029550043414</v>
       </c>
       <c r="I2" t="n">
-        <v>108.8838344298736</v>
+        <v>107.0669144420247</v>
       </c>
       <c r="J2" t="n">
-        <v>55.88362148616</v>
+        <v>51.88365228004648</v>
       </c>
       <c r="K2" t="n">
-        <v>50.44189372798085</v>
+        <v>44.44697677306648</v>
       </c>
       <c r="L2" t="n">
-        <v>38.34920004422725</v>
+        <v>30.91197545483701</v>
       </c>
       <c r="M2" t="n">
-        <v>21.8778091604332</v>
+        <v>13.60246380497313</v>
       </c>
       <c r="N2" t="n">
-        <v>19.20254685767776</v>
+        <v>10.7932977627591</v>
       </c>
       <c r="O2" t="n">
-        <v>26.8878950339908</v>
+        <v>18.94727957188903</v>
       </c>
       <c r="P2" t="n">
-        <v>45.60036861920612</v>
+        <v>38.8232370349338</v>
       </c>
       <c r="Q2" t="n">
-        <v>65.87254875688946</v>
+        <v>60.78320517767101</v>
       </c>
       <c r="R2" t="n">
-        <v>94.39435507525033</v>
+        <v>91.43392189486737</v>
       </c>
       <c r="S2" t="n">
-        <v>148.2569376603758</v>
+        <v>147.1829978582072</v>
       </c>
       <c r="T2" t="n">
-        <v>218.0783572811451</v>
+        <v>217.8720524436687</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1369546099409</v>
+        <v>253.133184333071</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22640,22 +22640,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.4696541797598</v>
+        <v>118.4444382301515</v>
       </c>
       <c r="H3" t="n">
-        <v>83.65205897599289</v>
+        <v>83.40852598898685</v>
       </c>
       <c r="I3" t="n">
-        <v>51.27687280091475</v>
+        <v>50.4086920797534</v>
       </c>
       <c r="J3" t="n">
-        <v>45.63905415849315</v>
+        <v>43.25669990186429</v>
       </c>
       <c r="K3" t="n">
-        <v>26.69063902916496</v>
+        <v>22.61881614878314</v>
       </c>
       <c r="L3" t="n">
-        <v>5.475068356827066</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22667,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.69342733144536</v>
+        <v>7.878286918971142</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.26044998519077</v>
+        <v>38.0416561369513</v>
       </c>
       <c r="R3" t="n">
-        <v>70.50443987437902</v>
+        <v>68.93883907326308</v>
       </c>
       <c r="S3" t="n">
-        <v>126.3453607452921</v>
+        <v>125.8769855409459</v>
       </c>
       <c r="T3" t="n">
-        <v>173.6437510602833</v>
+        <v>173.5421130879587</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9368825743884</v>
+        <v>207.9352236303352</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -22719,49 +22719,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.2449146747757</v>
+        <v>166.2237744696828</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0200062948104</v>
+        <v>150.8320506531661</v>
       </c>
       <c r="I4" t="n">
-        <v>121.9417678743324</v>
+        <v>121.3060242520837</v>
       </c>
       <c r="J4" t="n">
-        <v>59.45649678074412</v>
+        <v>57.96188428067518</v>
       </c>
       <c r="K4" t="n">
-        <v>45.91378856574659</v>
+        <v>43.45768110131544</v>
       </c>
       <c r="L4" t="n">
-        <v>39.11872209654599</v>
+        <v>35.97575015027785</v>
       </c>
       <c r="M4" t="n">
-        <v>39.10593087476303</v>
+        <v>35.79210763460761</v>
       </c>
       <c r="N4" t="n">
-        <v>33.01709758919402</v>
+        <v>29.78206965893037</v>
       </c>
       <c r="O4" t="n">
-        <v>43.83351015779508</v>
+        <v>40.84543825975317</v>
       </c>
       <c r="P4" t="n">
-        <v>50.02257600621597</v>
+        <v>47.46576429206949</v>
       </c>
       <c r="Q4" t="n">
-        <v>71.13006466034253</v>
+        <v>69.35986075933506</v>
       </c>
       <c r="R4" t="n">
-        <v>107.9769148848387</v>
+        <v>107.0263743903882</v>
       </c>
       <c r="S4" t="n">
-        <v>195.0961985925109</v>
+        <v>194.7277824728462</v>
       </c>
       <c r="T4" t="n">
-        <v>231.9663941972356</v>
+        <v>231.876067866384</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5665893666941</v>
+        <v>282.5654362645981</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -23758,7 +23758,7 @@
         <v>42.3392365872206</v>
       </c>
       <c r="K17" t="n">
-        <v>30.1423717840528</v>
+        <v>30.14237178405281</v>
       </c>
       <c r="L17" t="n">
         <v>13.16584806626727</v>
@@ -23834,10 +23834,10 @@
         <v>48.33710670689689</v>
       </c>
       <c r="J18" t="n">
-        <v>37.57211130101051</v>
+        <v>37.57211130101052</v>
       </c>
       <c r="K18" t="n">
-        <v>12.90294880197315</v>
+        <v>12.90294880197317</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>30.36122038005755</v>
       </c>
       <c r="R18" t="n">
-        <v>65.20312410024947</v>
+        <v>65.20312410024948</v>
       </c>
       <c r="S18" t="n">
         <v>124.7593850245067</v>
@@ -23913,13 +23913,13 @@
         <v>119.7890622225935</v>
       </c>
       <c r="J19" t="n">
-        <v>54.39555607531078</v>
+        <v>54.39555607531079</v>
       </c>
       <c r="K19" t="n">
         <v>37.59710832716642</v>
       </c>
       <c r="L19" t="n">
-        <v>28.47623472395287</v>
+        <v>28.47623472395288</v>
       </c>
       <c r="M19" t="n">
         <v>27.88492012720138</v>
@@ -23931,7 +23931,7 @@
         <v>33.71553329164135</v>
       </c>
       <c r="P19" t="n">
-        <v>41.36489886270497</v>
+        <v>41.36489886270498</v>
       </c>
       <c r="Q19" t="n">
         <v>65.13593776851451</v>
@@ -23992,10 +23992,10 @@
         <v>102.731521154964</v>
       </c>
       <c r="J20" t="n">
-        <v>42.33923658722058</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K20" t="n">
-        <v>30.1423717840528</v>
+        <v>30.14237178405281</v>
       </c>
       <c r="L20" t="n">
         <v>13.16584806626727</v>
@@ -24010,13 +24010,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>22.65217228113208</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q20" t="n">
         <v>48.63940900808205</v>
       </c>
       <c r="R20" t="n">
-        <v>84.3699662871032</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S20" t="n">
         <v>144.6204461552334</v>
@@ -24071,10 +24071,10 @@
         <v>48.33710670689689</v>
       </c>
       <c r="J21" t="n">
-        <v>37.57211130101051</v>
+        <v>37.57211130101052</v>
       </c>
       <c r="K21" t="n">
-        <v>12.90294880197315</v>
+        <v>12.90294880197317</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.36122038005754</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R21" t="n">
-        <v>65.20312410024947</v>
+        <v>65.20312410024948</v>
       </c>
       <c r="S21" t="n">
         <v>124.7593850245067</v>
@@ -24150,25 +24150,25 @@
         <v>119.7890622225935</v>
       </c>
       <c r="J22" t="n">
-        <v>54.39555607531078</v>
+        <v>54.39555607531079</v>
       </c>
       <c r="K22" t="n">
-        <v>37.59710832716641</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L22" t="n">
-        <v>28.47623472395287</v>
+        <v>28.47623472395288</v>
       </c>
       <c r="M22" t="n">
-        <v>27.88492012720137</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N22" t="n">
         <v>22.06289739701717</v>
       </c>
       <c r="O22" t="n">
-        <v>33.71553329164134</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P22" t="n">
-        <v>41.36489886270497</v>
+        <v>41.36489886270498</v>
       </c>
       <c r="Q22" t="n">
         <v>65.13593776851451</v>
@@ -24229,10 +24229,10 @@
         <v>102.731521154964</v>
       </c>
       <c r="J23" t="n">
-        <v>42.33923658722058</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K23" t="n">
-        <v>30.1423717840528</v>
+        <v>30.14237178405281</v>
       </c>
       <c r="L23" t="n">
         <v>13.16584806626727</v>
@@ -24247,13 +24247,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>22.65217228113208</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q23" t="n">
         <v>48.63940900808205</v>
       </c>
       <c r="R23" t="n">
-        <v>84.3699662871032</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S23" t="n">
         <v>144.6204461552334</v>
@@ -24308,10 +24308,10 @@
         <v>48.33710670689689</v>
       </c>
       <c r="J24" t="n">
-        <v>37.57211130101051</v>
+        <v>37.57211130101052</v>
       </c>
       <c r="K24" t="n">
-        <v>12.90294880197315</v>
+        <v>12.90294880197317</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.36122038005754</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R24" t="n">
-        <v>65.20312410024947</v>
+        <v>65.20312410024948</v>
       </c>
       <c r="S24" t="n">
         <v>124.7593850245067</v>
@@ -24387,25 +24387,25 @@
         <v>119.7890622225935</v>
       </c>
       <c r="J25" t="n">
-        <v>54.39555607531078</v>
+        <v>54.39555607531079</v>
       </c>
       <c r="K25" t="n">
-        <v>37.59710832716641</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L25" t="n">
-        <v>28.47623472395287</v>
+        <v>28.47623472395288</v>
       </c>
       <c r="M25" t="n">
-        <v>27.88492012720137</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N25" t="n">
         <v>22.06289739701717</v>
       </c>
       <c r="O25" t="n">
-        <v>33.71553329164134</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P25" t="n">
-        <v>41.36489886270497</v>
+        <v>41.36489886270498</v>
       </c>
       <c r="Q25" t="n">
         <v>65.13593776851451</v>
@@ -24466,10 +24466,10 @@
         <v>102.731521154964</v>
       </c>
       <c r="J26" t="n">
-        <v>42.33923658722058</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K26" t="n">
-        <v>30.1423717840528</v>
+        <v>30.14237178405281</v>
       </c>
       <c r="L26" t="n">
         <v>13.16584806626727</v>
@@ -24484,13 +24484,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>22.65217228113208</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q26" t="n">
         <v>48.63940900808205</v>
       </c>
       <c r="R26" t="n">
-        <v>84.3699662871032</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S26" t="n">
         <v>144.6204461552334</v>
@@ -24545,10 +24545,10 @@
         <v>48.33710670689689</v>
       </c>
       <c r="J27" t="n">
-        <v>37.57211130101051</v>
+        <v>37.57211130101052</v>
       </c>
       <c r="K27" t="n">
-        <v>12.90294880197315</v>
+        <v>12.90294880197317</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,10 +24566,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.36122038005754</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R27" t="n">
-        <v>65.20312410024947</v>
+        <v>65.20312410024948</v>
       </c>
       <c r="S27" t="n">
         <v>124.7593850245067</v>
@@ -24624,25 +24624,25 @@
         <v>119.7890622225935</v>
       </c>
       <c r="J28" t="n">
-        <v>54.39555607531078</v>
+        <v>54.39555607531079</v>
       </c>
       <c r="K28" t="n">
-        <v>37.59710832716641</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L28" t="n">
-        <v>28.47623472395287</v>
+        <v>28.47623472395288</v>
       </c>
       <c r="M28" t="n">
-        <v>27.88492012720137</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N28" t="n">
         <v>22.06289739701717</v>
       </c>
       <c r="O28" t="n">
-        <v>33.71553329164134</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P28" t="n">
-        <v>41.36489886270497</v>
+        <v>41.36489886270498</v>
       </c>
       <c r="Q28" t="n">
         <v>65.13593776851451</v>
@@ -24706,7 +24706,7 @@
         <v>42.3392365872206</v>
       </c>
       <c r="K29" t="n">
-        <v>30.1423717840528</v>
+        <v>30.14237178405281</v>
       </c>
       <c r="L29" t="n">
         <v>13.16584806626727</v>
@@ -24782,10 +24782,10 @@
         <v>48.33710670689689</v>
       </c>
       <c r="J30" t="n">
-        <v>37.57211130101051</v>
+        <v>37.57211130101052</v>
       </c>
       <c r="K30" t="n">
-        <v>12.90294880197315</v>
+        <v>12.90294880197317</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>30.36122038005755</v>
       </c>
       <c r="R30" t="n">
-        <v>65.20312410024947</v>
+        <v>65.20312410024948</v>
       </c>
       <c r="S30" t="n">
         <v>124.7593850245067</v>
@@ -24861,13 +24861,13 @@
         <v>119.7890622225935</v>
       </c>
       <c r="J31" t="n">
-        <v>54.39555607531078</v>
+        <v>54.39555607531079</v>
       </c>
       <c r="K31" t="n">
         <v>37.59710832716642</v>
       </c>
       <c r="L31" t="n">
-        <v>28.47623472395287</v>
+        <v>28.47623472395288</v>
       </c>
       <c r="M31" t="n">
         <v>27.88492012720138</v>
@@ -24879,7 +24879,7 @@
         <v>33.71553329164135</v>
       </c>
       <c r="P31" t="n">
-        <v>41.36489886270497</v>
+        <v>41.36489886270498</v>
       </c>
       <c r="Q31" t="n">
         <v>65.13593776851451</v>
@@ -24940,10 +24940,10 @@
         <v>102.731521154964</v>
       </c>
       <c r="J32" t="n">
-        <v>42.33923658722058</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K32" t="n">
-        <v>30.1423717840528</v>
+        <v>30.14237178405281</v>
       </c>
       <c r="L32" t="n">
         <v>13.16584806626727</v>
@@ -24958,13 +24958,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>22.65217228113208</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q32" t="n">
         <v>48.63940900808205</v>
       </c>
       <c r="R32" t="n">
-        <v>84.3699662871032</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S32" t="n">
         <v>144.6204461552334</v>
@@ -25019,10 +25019,10 @@
         <v>48.33710670689689</v>
       </c>
       <c r="J33" t="n">
-        <v>37.57211130101051</v>
+        <v>37.57211130101052</v>
       </c>
       <c r="K33" t="n">
-        <v>12.90294880197315</v>
+        <v>12.90294880197317</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,10 +25040,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.36122038005754</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R33" t="n">
-        <v>65.20312410024947</v>
+        <v>65.20312410024948</v>
       </c>
       <c r="S33" t="n">
         <v>124.7593850245067</v>
@@ -25098,25 +25098,25 @@
         <v>119.7890622225935</v>
       </c>
       <c r="J34" t="n">
-        <v>54.39555607531078</v>
+        <v>54.39555607531079</v>
       </c>
       <c r="K34" t="n">
-        <v>37.59710832716641</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L34" t="n">
-        <v>28.47623472395287</v>
+        <v>28.47623472395288</v>
       </c>
       <c r="M34" t="n">
-        <v>27.88492012720137</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N34" t="n">
         <v>22.06289739701717</v>
       </c>
       <c r="O34" t="n">
-        <v>33.71553329164134</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P34" t="n">
-        <v>41.36489886270497</v>
+        <v>41.36489886270498</v>
       </c>
       <c r="Q34" t="n">
         <v>65.13593776851451</v>
@@ -25180,7 +25180,7 @@
         <v>42.3392365872206</v>
       </c>
       <c r="K35" t="n">
-        <v>30.1423717840528</v>
+        <v>30.14237178405281</v>
       </c>
       <c r="L35" t="n">
         <v>13.16584806626727</v>
@@ -25256,10 +25256,10 @@
         <v>48.33710670689689</v>
       </c>
       <c r="J36" t="n">
-        <v>37.57211130101051</v>
+        <v>37.57211130101052</v>
       </c>
       <c r="K36" t="n">
-        <v>12.90294880197315</v>
+        <v>12.90294880197317</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>30.36122038005755</v>
       </c>
       <c r="R36" t="n">
-        <v>65.20312410024947</v>
+        <v>65.20312410024948</v>
       </c>
       <c r="S36" t="n">
         <v>124.7593850245067</v>
@@ -25335,13 +25335,13 @@
         <v>119.7890622225935</v>
       </c>
       <c r="J37" t="n">
-        <v>54.39555607531078</v>
+        <v>54.39555607531079</v>
       </c>
       <c r="K37" t="n">
         <v>37.59710832716642</v>
       </c>
       <c r="L37" t="n">
-        <v>28.47623472395287</v>
+        <v>28.47623472395288</v>
       </c>
       <c r="M37" t="n">
         <v>27.88492012720138</v>
@@ -25353,7 +25353,7 @@
         <v>33.71553329164135</v>
       </c>
       <c r="P37" t="n">
-        <v>41.36489886270497</v>
+        <v>41.36489886270498</v>
       </c>
       <c r="Q37" t="n">
         <v>65.13593776851451</v>
@@ -25651,10 +25651,10 @@
         <v>102.731521154964</v>
       </c>
       <c r="J41" t="n">
-        <v>42.3392365872206</v>
+        <v>42.33923658722058</v>
       </c>
       <c r="K41" t="n">
-        <v>30.14237178405281</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L41" t="n">
         <v>13.16584806626727</v>
@@ -25669,13 +25669,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>22.6521722811321</v>
+        <v>22.65217228113208</v>
       </c>
       <c r="Q41" t="n">
         <v>48.63940900808205</v>
       </c>
       <c r="R41" t="n">
-        <v>84.36996628710321</v>
+        <v>84.3699662871032</v>
       </c>
       <c r="S41" t="n">
         <v>144.6204461552334</v>
@@ -25730,10 +25730,10 @@
         <v>48.33710670689689</v>
       </c>
       <c r="J42" t="n">
-        <v>37.57211130101052</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K42" t="n">
-        <v>12.90294880197317</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.36122038005755</v>
+        <v>30.36122038005754</v>
       </c>
       <c r="R42" t="n">
-        <v>65.20312410024948</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S42" t="n">
         <v>124.7593850245067</v>
@@ -25809,25 +25809,25 @@
         <v>119.7890622225935</v>
       </c>
       <c r="J43" t="n">
-        <v>54.39555607531079</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K43" t="n">
-        <v>37.59710832716642</v>
+        <v>37.59710832716641</v>
       </c>
       <c r="L43" t="n">
-        <v>28.47623472395288</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M43" t="n">
-        <v>27.88492012720138</v>
+        <v>27.88492012720137</v>
       </c>
       <c r="N43" t="n">
         <v>22.06289739701717</v>
       </c>
       <c r="O43" t="n">
-        <v>33.71553329164135</v>
+        <v>33.71553329164134</v>
       </c>
       <c r="P43" t="n">
-        <v>41.36489886270498</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q43" t="n">
         <v>65.13593776851451</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>371.327270862117</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25879,22 +25879,22 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>407.9941069995947</v>
+        <v>408.1434494773101</v>
       </c>
       <c r="H44" t="n">
-        <v>310.221829050409</v>
+        <v>311.7512827003116</v>
       </c>
       <c r="I44" t="n">
-        <v>88.28167333057058</v>
+        <v>102.731521154964</v>
       </c>
       <c r="J44" t="n">
-        <v>29.66398046922554</v>
+        <v>42.3392365872206</v>
       </c>
       <c r="K44" t="n">
-        <v>11.14544858436605</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>13.16584806626727</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25906,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.176537307564445</v>
+        <v>22.6521722811321</v>
       </c>
       <c r="Q44" t="n">
-        <v>32.51210151769618</v>
+        <v>48.63940900808205</v>
       </c>
       <c r="R44" t="n">
-        <v>74.98883187131496</v>
+        <v>84.36996628710321</v>
       </c>
       <c r="S44" t="n">
-        <v>141.2173044442944</v>
+        <v>144.6204461552334</v>
       </c>
       <c r="T44" t="n">
-        <v>216.7260371756751</v>
+        <v>217.3797838718742</v>
       </c>
       <c r="U44" t="n">
-        <v>227.9497132009989</v>
+        <v>253.124187991382</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>367.363274596439</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25958,19 +25958,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>116.3025932461372</v>
+        <v>118.3842698906596</v>
       </c>
       <c r="H45" t="n">
-        <v>82.05570981277423</v>
+        <v>82.82742649968367</v>
       </c>
       <c r="I45" t="n">
-        <v>45.58598227808712</v>
+        <v>48.33710670689689</v>
       </c>
       <c r="J45" t="n">
-        <v>30.02281559133009</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>30.36122038005755</v>
       </c>
       <c r="R45" t="n">
-        <v>60.2419881239143</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S45" t="n">
-        <v>98.11265228762625</v>
+        <v>124.7593850245067</v>
       </c>
       <c r="T45" t="n">
-        <v>172.9775181442987</v>
+        <v>173.2995924564103</v>
       </c>
       <c r="U45" t="n">
-        <v>182.7634808691216</v>
+        <v>207.9312651869476</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>202.6535460158801</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -26037,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1063414608336</v>
+        <v>166.1733313550384</v>
       </c>
       <c r="H46" t="n">
-        <v>149.7879644472162</v>
+        <v>150.3835655065998</v>
       </c>
       <c r="I46" t="n">
-        <v>117.7744934041466</v>
+        <v>119.7890622225935</v>
       </c>
       <c r="J46" t="n">
-        <v>49.6593705550383</v>
+        <v>54.39555607531078</v>
       </c>
       <c r="K46" t="n">
-        <v>29.81410061865641</v>
+        <v>37.59710832716642</v>
       </c>
       <c r="L46" t="n">
-        <v>18.51666445282825</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M46" t="n">
-        <v>17.38394971109511</v>
+        <v>27.88492012720138</v>
       </c>
       <c r="N46" t="n">
-        <v>11.81161658658297</v>
+        <v>22.06289739701717</v>
       </c>
       <c r="O46" t="n">
-        <v>24.24681624532572</v>
+        <v>33.71553329164135</v>
       </c>
       <c r="P46" t="n">
-        <v>33.26277565816529</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.526447627428</v>
+        <v>65.13593776851451</v>
       </c>
       <c r="R46" t="n">
-        <v>101.7461592834061</v>
+        <v>104.7582685264648</v>
       </c>
       <c r="S46" t="n">
-        <v>192.6812454004474</v>
+        <v>193.8486965567239</v>
       </c>
       <c r="T46" t="n">
-        <v>231.3743086467557</v>
+        <v>231.6605381947213</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5590308277518</v>
+        <v>282.5626848219811</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>159085.1070878846</v>
+        <v>168306.1856370782</v>
       </c>
     </row>
     <row r="3">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>220232.1517786139</v>
+        <v>187504.3200021705</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32914.16008714851</v>
+        <v>34821.96944215408</v>
       </c>
       <c r="C2" t="n">
         <v>34821.96944215408</v>
       </c>
       <c r="D2" t="n">
-        <v>37181.26192970647</v>
+        <v>37181.2619297065</v>
       </c>
       <c r="E2" t="n">
-        <v>38793.99724182838</v>
+        <v>38793.99724182837</v>
       </c>
       <c r="F2" t="n">
         <v>38793.99724182837</v>
@@ -26340,7 +26340,7 @@
         <v>38793.99724182837</v>
       </c>
       <c r="K2" t="n">
-        <v>38793.99724182837</v>
+        <v>38793.99724182838</v>
       </c>
       <c r="L2" t="n">
         <v>38793.99724182838</v>
@@ -26352,10 +26352,10 @@
         <v>38793.99724182837</v>
       </c>
       <c r="O2" t="n">
-        <v>38793.99724182838</v>
+        <v>38793.99724182837</v>
       </c>
       <c r="P2" t="n">
-        <v>45565.27278178217</v>
+        <v>38793.99724182837</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174523.6287437367</v>
+        <v>185820.2611388459</v>
       </c>
       <c r="C3" t="n">
-        <v>10675.17359380923</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>12886.26462898379</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30673.21102558258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>16.59184509935592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37575.88121519059</v>
+        <v>37831.44707639565</v>
       </c>
       <c r="C5" t="n">
         <v>37831.44707639565</v>
@@ -26511,7 +26511,7 @@
         <v>4813.658475070405</v>
       </c>
       <c r="P5" t="n">
-        <v>7153.387061545125</v>
+        <v>4813.658475070405</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179185.3498717788</v>
+        <v>-190342.8774753365</v>
       </c>
       <c r="C6" t="n">
-        <v>-13684.6512280508</v>
+        <v>-4522.616336490522</v>
       </c>
       <c r="D6" t="n">
-        <v>-13864.46936539458</v>
+        <v>-15357.9472969139</v>
       </c>
       <c r="E6" t="n">
-        <v>23595.36699206161</v>
+        <v>22115.3285214766</v>
       </c>
       <c r="F6" t="n">
-        <v>33980.33876675797</v>
+        <v>32500.30029617297</v>
       </c>
       <c r="G6" t="n">
-        <v>33980.33876675797</v>
+        <v>32500.30029617298</v>
       </c>
       <c r="H6" t="n">
-        <v>33980.33876675797</v>
+        <v>32500.30029617296</v>
       </c>
       <c r="I6" t="n">
-        <v>33980.33876675796</v>
+        <v>32500.30029617296</v>
       </c>
       <c r="J6" t="n">
-        <v>33980.33876675797</v>
+        <v>32500.30029617296</v>
       </c>
       <c r="K6" t="n">
-        <v>33980.33876675797</v>
+        <v>32500.30029617298</v>
       </c>
       <c r="L6" t="n">
-        <v>33980.33876675797</v>
+        <v>32500.30029617298</v>
       </c>
       <c r="M6" t="n">
-        <v>33980.33876675796</v>
+        <v>32500.30029617296</v>
       </c>
       <c r="N6" t="n">
-        <v>33980.33876675797</v>
+        <v>32500.30029617297</v>
       </c>
       <c r="O6" t="n">
-        <v>33980.33876675797</v>
+        <v>32500.30029617297</v>
       </c>
       <c r="P6" t="n">
-        <v>7722.082849555103</v>
+        <v>32500.30029617296</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.113817210578</v>
+        <v>192.8370218530114</v>
       </c>
       <c r="C3" t="n">
         <v>192.8370218530114</v>
@@ -26779,7 +26779,7 @@
         <v>220.8100217922204</v>
       </c>
       <c r="P3" t="n">
-        <v>257.9589631239192</v>
+        <v>220.8100217922204</v>
       </c>
     </row>
     <row r="4">
@@ -26831,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.113817210578</v>
+        <v>192.8370218530114</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7232046424335</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>15.04677017071626</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37.14894133169881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7280957475802123</v>
+        <v>0.7752242084543167</v>
       </c>
       <c r="H2" t="n">
-        <v>7.456610574905852</v>
+        <v>7.939264924832774</v>
       </c>
       <c r="I2" t="n">
-        <v>28.06991130858616</v>
+        <v>29.88683129643508</v>
       </c>
       <c r="J2" t="n">
-        <v>61.79621645618609</v>
+        <v>65.79618566229962</v>
       </c>
       <c r="K2" t="n">
-        <v>92.6165094512565</v>
+        <v>98.61142640617088</v>
       </c>
       <c r="L2" t="n">
-        <v>114.8989696862645</v>
+        <v>122.3361942756547</v>
       </c>
       <c r="M2" t="n">
-        <v>127.8472424372941</v>
+        <v>136.1225877927541</v>
       </c>
       <c r="N2" t="n">
-        <v>129.9159444801063</v>
+        <v>138.325193575025</v>
       </c>
       <c r="O2" t="n">
-        <v>122.6759423901056</v>
+        <v>130.6165578522074</v>
       </c>
       <c r="P2" t="n">
-        <v>104.7010786217191</v>
+        <v>111.4782102059914</v>
       </c>
       <c r="Q2" t="n">
-        <v>78.62614966150271</v>
+        <v>83.71549324072116</v>
       </c>
       <c r="R2" t="n">
-        <v>45.73624450393555</v>
+        <v>48.69667768431852</v>
       </c>
       <c r="S2" t="n">
-        <v>16.59148184798411</v>
+        <v>17.66542165015276</v>
       </c>
       <c r="T2" t="n">
-        <v>3.187239135032381</v>
+        <v>3.393543972508773</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05824765980641697</v>
+        <v>0.06201793667634533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3895655690944507</v>
+        <v>0.4147815187027039</v>
       </c>
       <c r="H3" t="n">
-        <v>3.762383259412196</v>
+        <v>4.005916246418219</v>
       </c>
       <c r="I3" t="n">
-        <v>13.41267419908526</v>
+        <v>14.2808549202466</v>
       </c>
       <c r="J3" t="n">
-        <v>36.80540317484019</v>
+        <v>39.18775743146906</v>
       </c>
       <c r="K3" t="n">
-        <v>62.90629630416839</v>
+        <v>66.97811918455021</v>
       </c>
       <c r="L3" t="n">
-        <v>84.58527850009116</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
@@ -31147,22 +31147,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>74.38993748786929</v>
+        <v>79.20507790034351</v>
       </c>
       <c r="Q3" t="n">
-        <v>49.72770317072322</v>
+        <v>52.9464970189627</v>
       </c>
       <c r="R3" t="n">
-        <v>24.18723770219757</v>
+        <v>25.7528385033135</v>
       </c>
       <c r="S3" t="n">
-        <v>7.236009583837708</v>
+        <v>7.704384788183989</v>
       </c>
       <c r="T3" t="n">
-        <v>1.570222622797369</v>
+        <v>1.671860595121863</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02562931375621387</v>
+        <v>0.02728825780938842</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3265986867731733</v>
+        <v>0.3477388918660861</v>
       </c>
       <c r="H4" t="n">
-        <v>2.903759233310579</v>
+        <v>3.091714874954841</v>
       </c>
       <c r="I4" t="n">
-        <v>9.821713234960523</v>
+        <v>10.45745685720921</v>
       </c>
       <c r="J4" t="n">
-        <v>23.09052715486335</v>
+        <v>24.58513965493229</v>
       </c>
       <c r="K4" t="n">
-        <v>37.9448292451014</v>
+        <v>40.40093670953254</v>
       </c>
       <c r="L4" t="n">
-        <v>48.55631748625889</v>
+        <v>51.69928943252704</v>
       </c>
       <c r="M4" t="n">
-        <v>51.19582869118025</v>
+        <v>54.50965193133566</v>
       </c>
       <c r="N4" t="n">
-        <v>49.97850631320755</v>
+        <v>53.2135342434712</v>
       </c>
       <c r="O4" t="n">
-        <v>46.16323983590273</v>
+        <v>49.15131173394463</v>
       </c>
       <c r="P4" t="n">
-        <v>39.50062662572996</v>
+        <v>42.05743833987644</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.34818639879727</v>
+        <v>29.11839029980473</v>
       </c>
       <c r="R4" t="n">
-        <v>14.68506458891013</v>
+        <v>15.63560508336056</v>
       </c>
       <c r="S4" t="n">
-        <v>5.691724386765209</v>
+        <v>6.060140506429881</v>
       </c>
       <c r="T4" t="n">
-        <v>1.395467116212649</v>
+        <v>1.485793447064186</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01781447382399129</v>
+        <v>0.01896757591996836</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>0.8876784795667145</v>
       </c>
       <c r="H17" t="n">
-        <v>9.090937228862618</v>
+        <v>9.090937228862616</v>
       </c>
       <c r="I17" t="n">
         <v>34.22222458349579</v>
@@ -32238,7 +32238,7 @@
         <v>75.3406013551255</v>
       </c>
       <c r="K17" t="n">
-        <v>112.9160313951846</v>
+        <v>112.9160313951845</v>
       </c>
       <c r="L17" t="n">
         <v>140.0823216642244</v>
@@ -32265,7 +32265,7 @@
         <v>20.22797335312653</v>
       </c>
       <c r="T17" t="n">
-        <v>3.885812544303295</v>
+        <v>3.885812544303294</v>
       </c>
       <c r="U17" t="n">
         <v>0.07101427836533715</v>
@@ -32308,16 +32308,16 @@
         <v>0.4749498581945873</v>
       </c>
       <c r="H18" t="n">
-        <v>4.58701573572141</v>
+        <v>4.587015735721409</v>
       </c>
       <c r="I18" t="n">
         <v>16.35244029310312</v>
       </c>
       <c r="J18" t="n">
-        <v>44.87234603232284</v>
+        <v>44.87234603232283</v>
       </c>
       <c r="K18" t="n">
-        <v>76.6939865313602</v>
+        <v>76.69398653136018</v>
       </c>
       <c r="L18" t="n">
         <v>90.06034685691823</v>
@@ -32387,13 +32387,13 @@
         <v>0.3981820065105613</v>
       </c>
       <c r="H19" t="n">
-        <v>3.540200021521176</v>
+        <v>3.540200021521175</v>
       </c>
       <c r="I19" t="n">
         <v>11.97441888669943</v>
       </c>
       <c r="J19" t="n">
-        <v>28.15146786029669</v>
+        <v>28.15146786029668</v>
       </c>
       <c r="K19" t="n">
         <v>46.26150948368157</v>
@@ -32402,7 +32402,7 @@
         <v>59.19880485885201</v>
       </c>
       <c r="M19" t="n">
-        <v>62.4168394387419</v>
+        <v>62.41683943874189</v>
       </c>
       <c r="N19" t="n">
         <v>60.9327065053844</v>
@@ -32411,7 +32411,7 @@
         <v>56.28121670205645</v>
       </c>
       <c r="P19" t="n">
-        <v>48.15830376924097</v>
+        <v>48.15830376924096</v>
       </c>
       <c r="Q19" t="n">
         <v>33.34231329062528</v>
@@ -32423,7 +32423,7 @@
         <v>6.939226422552235</v>
       </c>
       <c r="T19" t="n">
-        <v>1.701323118726944</v>
+        <v>1.701323118726943</v>
       </c>
       <c r="U19" t="n">
         <v>0.02171901853693974</v>
@@ -32463,19 +32463,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8876784795667146</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H20" t="n">
-        <v>9.090937228862618</v>
+        <v>9.090937228862616</v>
       </c>
       <c r="I20" t="n">
         <v>34.22222458349579</v>
       </c>
       <c r="J20" t="n">
-        <v>75.34060135512551</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K20" t="n">
-        <v>112.9160313951846</v>
+        <v>112.9160313951845</v>
       </c>
       <c r="L20" t="n">
         <v>140.0823216642244</v>
@@ -32496,13 +32496,13 @@
         <v>95.85928941031011</v>
       </c>
       <c r="R20" t="n">
-        <v>55.76063329208269</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S20" t="n">
         <v>20.22797335312653</v>
       </c>
       <c r="T20" t="n">
-        <v>3.885812544303295</v>
+        <v>3.885812544303294</v>
       </c>
       <c r="U20" t="n">
         <v>0.07101427836533715</v>
@@ -32545,16 +32545,16 @@
         <v>0.4749498581945873</v>
       </c>
       <c r="H21" t="n">
-        <v>4.58701573572141</v>
+        <v>4.587015735721409</v>
       </c>
       <c r="I21" t="n">
         <v>16.35244029310312</v>
       </c>
       <c r="J21" t="n">
-        <v>44.87234603232284</v>
+        <v>44.87234603232283</v>
       </c>
       <c r="K21" t="n">
-        <v>76.6939865313602</v>
+        <v>76.69398653136018</v>
       </c>
       <c r="L21" t="n">
         <v>90.06034685691823</v>
@@ -32578,7 +32578,7 @@
         <v>29.48855347632711</v>
       </c>
       <c r="S21" t="n">
-        <v>8.821985304623141</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T21" t="n">
         <v>1.914381226670288</v>
@@ -32624,43 +32624,43 @@
         <v>0.3981820065105613</v>
       </c>
       <c r="H22" t="n">
-        <v>3.540200021521176</v>
+        <v>3.540200021521175</v>
       </c>
       <c r="I22" t="n">
         <v>11.97441888669943</v>
       </c>
       <c r="J22" t="n">
-        <v>28.15146786029669</v>
+        <v>28.15146786029668</v>
       </c>
       <c r="K22" t="n">
-        <v>46.26150948368158</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L22" t="n">
         <v>59.19880485885201</v>
       </c>
       <c r="M22" t="n">
-        <v>62.4168394387419</v>
+        <v>62.41683943874189</v>
       </c>
       <c r="N22" t="n">
         <v>60.9327065053844</v>
       </c>
       <c r="O22" t="n">
-        <v>56.28121670205646</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P22" t="n">
-        <v>48.15830376924097</v>
+        <v>48.15830376924096</v>
       </c>
       <c r="Q22" t="n">
         <v>33.34231329062528</v>
       </c>
       <c r="R22" t="n">
-        <v>17.90371094728397</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S22" t="n">
-        <v>6.939226422552236</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T22" t="n">
-        <v>1.701323118726944</v>
+        <v>1.701323118726943</v>
       </c>
       <c r="U22" t="n">
         <v>0.02171901853693974</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8876784795667146</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H23" t="n">
-        <v>9.090937228862618</v>
+        <v>9.090937228862616</v>
       </c>
       <c r="I23" t="n">
         <v>34.22222458349579</v>
       </c>
       <c r="J23" t="n">
-        <v>75.34060135512551</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K23" t="n">
-        <v>112.9160313951846</v>
+        <v>112.9160313951845</v>
       </c>
       <c r="L23" t="n">
         <v>140.0823216642244</v>
@@ -32733,13 +32733,13 @@
         <v>95.85928941031011</v>
       </c>
       <c r="R23" t="n">
-        <v>55.76063329208269</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S23" t="n">
         <v>20.22797335312653</v>
       </c>
       <c r="T23" t="n">
-        <v>3.885812544303295</v>
+        <v>3.885812544303294</v>
       </c>
       <c r="U23" t="n">
         <v>0.07101427836533715</v>
@@ -32782,16 +32782,16 @@
         <v>0.4749498581945873</v>
       </c>
       <c r="H24" t="n">
-        <v>4.58701573572141</v>
+        <v>4.587015735721409</v>
       </c>
       <c r="I24" t="n">
         <v>16.35244029310312</v>
       </c>
       <c r="J24" t="n">
-        <v>44.87234603232284</v>
+        <v>44.87234603232283</v>
       </c>
       <c r="K24" t="n">
-        <v>76.6939865313602</v>
+        <v>76.69398653136018</v>
       </c>
       <c r="L24" t="n">
         <v>90.06034685691823</v>
@@ -32815,7 +32815,7 @@
         <v>29.48855347632711</v>
       </c>
       <c r="S24" t="n">
-        <v>8.821985304623141</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T24" t="n">
         <v>1.914381226670288</v>
@@ -32861,43 +32861,43 @@
         <v>0.3981820065105613</v>
       </c>
       <c r="H25" t="n">
-        <v>3.540200021521176</v>
+        <v>3.540200021521175</v>
       </c>
       <c r="I25" t="n">
         <v>11.97441888669943</v>
       </c>
       <c r="J25" t="n">
-        <v>28.15146786029669</v>
+        <v>28.15146786029668</v>
       </c>
       <c r="K25" t="n">
-        <v>46.26150948368158</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L25" t="n">
         <v>59.19880485885201</v>
       </c>
       <c r="M25" t="n">
-        <v>62.4168394387419</v>
+        <v>62.41683943874189</v>
       </c>
       <c r="N25" t="n">
         <v>60.9327065053844</v>
       </c>
       <c r="O25" t="n">
-        <v>56.28121670205646</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P25" t="n">
-        <v>48.15830376924097</v>
+        <v>48.15830376924096</v>
       </c>
       <c r="Q25" t="n">
         <v>33.34231329062528</v>
       </c>
       <c r="R25" t="n">
-        <v>17.90371094728397</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S25" t="n">
-        <v>6.939226422552236</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T25" t="n">
-        <v>1.701323118726944</v>
+        <v>1.701323118726943</v>
       </c>
       <c r="U25" t="n">
         <v>0.02171901853693974</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8876784795667146</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H26" t="n">
-        <v>9.090937228862618</v>
+        <v>9.090937228862616</v>
       </c>
       <c r="I26" t="n">
         <v>34.22222458349579</v>
       </c>
       <c r="J26" t="n">
-        <v>75.34060135512551</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K26" t="n">
-        <v>112.9160313951846</v>
+        <v>112.9160313951845</v>
       </c>
       <c r="L26" t="n">
         <v>140.0823216642244</v>
@@ -32970,13 +32970,13 @@
         <v>95.85928941031011</v>
       </c>
       <c r="R26" t="n">
-        <v>55.76063329208269</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S26" t="n">
         <v>20.22797335312653</v>
       </c>
       <c r="T26" t="n">
-        <v>3.885812544303295</v>
+        <v>3.885812544303294</v>
       </c>
       <c r="U26" t="n">
         <v>0.07101427836533715</v>
@@ -33019,16 +33019,16 @@
         <v>0.4749498581945873</v>
       </c>
       <c r="H27" t="n">
-        <v>4.58701573572141</v>
+        <v>4.587015735721409</v>
       </c>
       <c r="I27" t="n">
         <v>16.35244029310312</v>
       </c>
       <c r="J27" t="n">
-        <v>44.87234603232284</v>
+        <v>44.87234603232283</v>
       </c>
       <c r="K27" t="n">
-        <v>76.6939865313602</v>
+        <v>76.69398653136018</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
@@ -33052,7 +33052,7 @@
         <v>29.48855347632711</v>
       </c>
       <c r="S27" t="n">
-        <v>8.821985304623141</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T27" t="n">
         <v>1.914381226670288</v>
@@ -33098,43 +33098,43 @@
         <v>0.3981820065105613</v>
       </c>
       <c r="H28" t="n">
-        <v>3.540200021521176</v>
+        <v>3.540200021521175</v>
       </c>
       <c r="I28" t="n">
         <v>11.97441888669943</v>
       </c>
       <c r="J28" t="n">
-        <v>28.15146786029669</v>
+        <v>28.15146786029668</v>
       </c>
       <c r="K28" t="n">
-        <v>46.26150948368158</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L28" t="n">
         <v>59.19880485885201</v>
       </c>
       <c r="M28" t="n">
-        <v>62.4168394387419</v>
+        <v>62.41683943874189</v>
       </c>
       <c r="N28" t="n">
         <v>60.9327065053844</v>
       </c>
       <c r="O28" t="n">
-        <v>56.28121670205646</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P28" t="n">
-        <v>48.15830376924097</v>
+        <v>48.15830376924096</v>
       </c>
       <c r="Q28" t="n">
         <v>33.34231329062528</v>
       </c>
       <c r="R28" t="n">
-        <v>17.90371094728397</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S28" t="n">
-        <v>6.939226422552236</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T28" t="n">
-        <v>1.701323118726944</v>
+        <v>1.701323118726943</v>
       </c>
       <c r="U28" t="n">
         <v>0.02171901853693974</v>
@@ -33177,7 +33177,7 @@
         <v>0.8876784795667145</v>
       </c>
       <c r="H29" t="n">
-        <v>9.090937228862618</v>
+        <v>9.090937228862616</v>
       </c>
       <c r="I29" t="n">
         <v>34.22222458349579</v>
@@ -33186,7 +33186,7 @@
         <v>75.3406013551255</v>
       </c>
       <c r="K29" t="n">
-        <v>112.9160313951846</v>
+        <v>112.9160313951845</v>
       </c>
       <c r="L29" t="n">
         <v>140.0823216642244</v>
@@ -33213,7 +33213,7 @@
         <v>20.22797335312653</v>
       </c>
       <c r="T29" t="n">
-        <v>3.885812544303295</v>
+        <v>3.885812544303294</v>
       </c>
       <c r="U29" t="n">
         <v>0.07101427836533715</v>
@@ -33256,16 +33256,16 @@
         <v>0.4749498581945873</v>
       </c>
       <c r="H30" t="n">
-        <v>4.58701573572141</v>
+        <v>4.587015735721409</v>
       </c>
       <c r="I30" t="n">
         <v>16.35244029310312</v>
       </c>
       <c r="J30" t="n">
-        <v>44.87234603232284</v>
+        <v>44.87234603232283</v>
       </c>
       <c r="K30" t="n">
-        <v>76.6939865313602</v>
+        <v>76.69398653136018</v>
       </c>
       <c r="L30" t="n">
         <v>90.06034685691823</v>
@@ -33335,13 +33335,13 @@
         <v>0.3981820065105613</v>
       </c>
       <c r="H31" t="n">
-        <v>3.540200021521176</v>
+        <v>3.540200021521175</v>
       </c>
       <c r="I31" t="n">
         <v>11.97441888669943</v>
       </c>
       <c r="J31" t="n">
-        <v>28.15146786029669</v>
+        <v>28.15146786029668</v>
       </c>
       <c r="K31" t="n">
         <v>46.26150948368157</v>
@@ -33350,7 +33350,7 @@
         <v>59.19880485885201</v>
       </c>
       <c r="M31" t="n">
-        <v>62.4168394387419</v>
+        <v>62.41683943874189</v>
       </c>
       <c r="N31" t="n">
         <v>60.9327065053844</v>
@@ -33359,7 +33359,7 @@
         <v>56.28121670205645</v>
       </c>
       <c r="P31" t="n">
-        <v>48.15830376924097</v>
+        <v>48.15830376924096</v>
       </c>
       <c r="Q31" t="n">
         <v>33.34231329062528</v>
@@ -33371,7 +33371,7 @@
         <v>6.939226422552235</v>
       </c>
       <c r="T31" t="n">
-        <v>1.701323118726944</v>
+        <v>1.701323118726943</v>
       </c>
       <c r="U31" t="n">
         <v>0.02171901853693974</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8876784795667146</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H32" t="n">
-        <v>9.090937228862618</v>
+        <v>9.090937228862616</v>
       </c>
       <c r="I32" t="n">
         <v>34.22222458349579</v>
       </c>
       <c r="J32" t="n">
-        <v>75.34060135512551</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K32" t="n">
-        <v>112.9160313951846</v>
+        <v>112.9160313951845</v>
       </c>
       <c r="L32" t="n">
         <v>140.0823216642244</v>
@@ -33444,13 +33444,13 @@
         <v>95.85928941031011</v>
       </c>
       <c r="R32" t="n">
-        <v>55.76063329208269</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S32" t="n">
         <v>20.22797335312653</v>
       </c>
       <c r="T32" t="n">
-        <v>3.885812544303295</v>
+        <v>3.885812544303294</v>
       </c>
       <c r="U32" t="n">
         <v>0.07101427836533715</v>
@@ -33493,16 +33493,16 @@
         <v>0.4749498581945873</v>
       </c>
       <c r="H33" t="n">
-        <v>4.58701573572141</v>
+        <v>4.587015735721409</v>
       </c>
       <c r="I33" t="n">
         <v>16.35244029310312</v>
       </c>
       <c r="J33" t="n">
-        <v>44.87234603232284</v>
+        <v>44.87234603232283</v>
       </c>
       <c r="K33" t="n">
-        <v>76.6939865313602</v>
+        <v>76.69398653136018</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
@@ -33526,7 +33526,7 @@
         <v>29.48855347632711</v>
       </c>
       <c r="S33" t="n">
-        <v>8.821985304623141</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T33" t="n">
         <v>1.914381226670288</v>
@@ -33572,43 +33572,43 @@
         <v>0.3981820065105613</v>
       </c>
       <c r="H34" t="n">
-        <v>3.540200021521176</v>
+        <v>3.540200021521175</v>
       </c>
       <c r="I34" t="n">
         <v>11.97441888669943</v>
       </c>
       <c r="J34" t="n">
-        <v>28.15146786029669</v>
+        <v>28.15146786029668</v>
       </c>
       <c r="K34" t="n">
-        <v>46.26150948368158</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L34" t="n">
         <v>59.19880485885201</v>
       </c>
       <c r="M34" t="n">
-        <v>62.4168394387419</v>
+        <v>62.41683943874189</v>
       </c>
       <c r="N34" t="n">
         <v>60.9327065053844</v>
       </c>
       <c r="O34" t="n">
-        <v>56.28121670205646</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P34" t="n">
-        <v>48.15830376924097</v>
+        <v>48.15830376924096</v>
       </c>
       <c r="Q34" t="n">
         <v>33.34231329062528</v>
       </c>
       <c r="R34" t="n">
-        <v>17.90371094728397</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S34" t="n">
-        <v>6.939226422552236</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T34" t="n">
-        <v>1.701323118726944</v>
+        <v>1.701323118726943</v>
       </c>
       <c r="U34" t="n">
         <v>0.02171901853693974</v>
@@ -33651,7 +33651,7 @@
         <v>0.8876784795667145</v>
       </c>
       <c r="H35" t="n">
-        <v>9.090937228862618</v>
+        <v>9.090937228862616</v>
       </c>
       <c r="I35" t="n">
         <v>34.22222458349579</v>
@@ -33660,7 +33660,7 @@
         <v>75.3406013551255</v>
       </c>
       <c r="K35" t="n">
-        <v>112.9160313951846</v>
+        <v>112.9160313951845</v>
       </c>
       <c r="L35" t="n">
         <v>140.0823216642244</v>
@@ -33687,7 +33687,7 @@
         <v>20.22797335312653</v>
       </c>
       <c r="T35" t="n">
-        <v>3.885812544303295</v>
+        <v>3.885812544303294</v>
       </c>
       <c r="U35" t="n">
         <v>0.07101427836533715</v>
@@ -33730,16 +33730,16 @@
         <v>0.4749498581945873</v>
       </c>
       <c r="H36" t="n">
-        <v>4.58701573572141</v>
+        <v>4.587015735721409</v>
       </c>
       <c r="I36" t="n">
         <v>16.35244029310312</v>
       </c>
       <c r="J36" t="n">
-        <v>44.87234603232284</v>
+        <v>44.87234603232283</v>
       </c>
       <c r="K36" t="n">
-        <v>76.6939865313602</v>
+        <v>76.69398653136018</v>
       </c>
       <c r="L36" t="n">
         <v>90.06034685691823</v>
@@ -33809,13 +33809,13 @@
         <v>0.3981820065105613</v>
       </c>
       <c r="H37" t="n">
-        <v>3.540200021521176</v>
+        <v>3.540200021521175</v>
       </c>
       <c r="I37" t="n">
         <v>11.97441888669943</v>
       </c>
       <c r="J37" t="n">
-        <v>28.15146786029669</v>
+        <v>28.15146786029668</v>
       </c>
       <c r="K37" t="n">
         <v>46.26150948368157</v>
@@ -33824,7 +33824,7 @@
         <v>59.19880485885201</v>
       </c>
       <c r="M37" t="n">
-        <v>62.4168394387419</v>
+        <v>62.41683943874189</v>
       </c>
       <c r="N37" t="n">
         <v>60.9327065053844</v>
@@ -33833,7 +33833,7 @@
         <v>56.28121670205645</v>
       </c>
       <c r="P37" t="n">
-        <v>48.15830376924097</v>
+        <v>48.15830376924096</v>
       </c>
       <c r="Q37" t="n">
         <v>33.34231329062528</v>
@@ -33845,7 +33845,7 @@
         <v>6.939226422552235</v>
       </c>
       <c r="T37" t="n">
-        <v>1.701323118726944</v>
+        <v>1.701323118726943</v>
       </c>
       <c r="U37" t="n">
         <v>0.02171901853693974</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8876784795667145</v>
+        <v>0.8876784795667146</v>
       </c>
       <c r="H41" t="n">
-        <v>9.090937228862616</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I41" t="n">
         <v>34.22222458349579</v>
       </c>
       <c r="J41" t="n">
-        <v>75.3406013551255</v>
+        <v>75.34060135512551</v>
       </c>
       <c r="K41" t="n">
-        <v>112.9160313951845</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L41" t="n">
         <v>140.0823216642244</v>
@@ -34155,13 +34155,13 @@
         <v>95.85928941031011</v>
       </c>
       <c r="R41" t="n">
-        <v>55.76063329208268</v>
+        <v>55.76063329208269</v>
       </c>
       <c r="S41" t="n">
         <v>20.22797335312653</v>
       </c>
       <c r="T41" t="n">
-        <v>3.885812544303294</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U41" t="n">
         <v>0.07101427836533715</v>
@@ -34204,16 +34204,16 @@
         <v>0.4749498581945873</v>
       </c>
       <c r="H42" t="n">
-        <v>4.587015735721409</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I42" t="n">
         <v>16.35244029310312</v>
       </c>
       <c r="J42" t="n">
-        <v>44.87234603232283</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K42" t="n">
-        <v>76.69398653136018</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L42" t="n">
         <v>90.06034685691823</v>
@@ -34237,7 +34237,7 @@
         <v>29.48855347632711</v>
       </c>
       <c r="S42" t="n">
-        <v>8.821985304623139</v>
+        <v>8.821985304623141</v>
       </c>
       <c r="T42" t="n">
         <v>1.914381226670288</v>
@@ -34283,43 +34283,43 @@
         <v>0.3981820065105613</v>
       </c>
       <c r="H43" t="n">
-        <v>3.540200021521175</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I43" t="n">
         <v>11.97441888669943</v>
       </c>
       <c r="J43" t="n">
-        <v>28.15146786029668</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K43" t="n">
-        <v>46.26150948368157</v>
+        <v>46.26150948368158</v>
       </c>
       <c r="L43" t="n">
         <v>59.19880485885201</v>
       </c>
       <c r="M43" t="n">
-        <v>62.41683943874189</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N43" t="n">
         <v>60.9327065053844</v>
       </c>
       <c r="O43" t="n">
-        <v>56.28121670205645</v>
+        <v>56.28121670205646</v>
       </c>
       <c r="P43" t="n">
-        <v>48.15830376924096</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q43" t="n">
         <v>33.34231329062528</v>
       </c>
       <c r="R43" t="n">
-        <v>17.90371094728396</v>
+        <v>17.90371094728397</v>
       </c>
       <c r="S43" t="n">
-        <v>6.939226422552235</v>
+        <v>6.939226422552236</v>
       </c>
       <c r="T43" t="n">
-        <v>1.701323118726943</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U43" t="n">
         <v>0.02171901853693974</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.037020957282087</v>
+        <v>0.8876784795667145</v>
       </c>
       <c r="H44" t="n">
-        <v>10.62039087876517</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I44" t="n">
-        <v>39.97975045561768</v>
+        <v>34.22222458349579</v>
       </c>
       <c r="J44" t="n">
-        <v>88.01585747312056</v>
+        <v>75.3406013551255</v>
       </c>
       <c r="K44" t="n">
-        <v>131.9129545948713</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L44" t="n">
-        <v>163.649684716293</v>
+        <v>140.0823216642244</v>
       </c>
       <c r="M44" t="n">
-        <v>174.8875789898931</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
-        <v>174.28101872995</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>174.7263648162623</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>149.1249099333608</v>
+        <v>127.6492749597931</v>
       </c>
       <c r="Q44" t="n">
-        <v>111.986596900696</v>
+        <v>95.85928941031011</v>
       </c>
       <c r="R44" t="n">
-        <v>65.14176770787093</v>
+        <v>55.76063329208268</v>
       </c>
       <c r="S44" t="n">
-        <v>23.63111506406557</v>
+        <v>20.22797335312653</v>
       </c>
       <c r="T44" t="n">
-        <v>4.539559240502336</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0829616765825669</v>
+        <v>0.07101427836533715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5548551282288073</v>
+        <v>0.4749498581945873</v>
       </c>
       <c r="H45" t="n">
-        <v>5.358732422630851</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I45" t="n">
-        <v>19.10356472191289</v>
+        <v>16.35244029310312</v>
       </c>
       <c r="J45" t="n">
-        <v>52.42164174200325</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333333</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L45" t="n">
-        <v>95.33657755451381</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>117.5496494414778</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>110.5346402463325</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>117.8500862810548</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>105.9529937404641</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.8267704033825</v>
+        <v>60.62693277585645</v>
       </c>
       <c r="R45" t="n">
-        <v>34.44968945266228</v>
+        <v>29.48855347632711</v>
       </c>
       <c r="S45" t="n">
-        <v>10.30619064933771</v>
+        <v>8.821985304623139</v>
       </c>
       <c r="T45" t="n">
-        <v>2.236455538781903</v>
+        <v>1.914381226670288</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03650362685715839</v>
+        <v>0.03124670119701234</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4651719007152641</v>
+        <v>0.3981820065105613</v>
       </c>
       <c r="H46" t="n">
-        <v>4.135801080904805</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I46" t="n">
-        <v>13.98898770514631</v>
+        <v>11.97441888669943</v>
       </c>
       <c r="J46" t="n">
-        <v>32.88765338056917</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K46" t="n">
-        <v>54.04451719219158</v>
+        <v>46.26150948368157</v>
       </c>
       <c r="L46" t="n">
-        <v>69.15837512997663</v>
+        <v>59.19880485885201</v>
       </c>
       <c r="M46" t="n">
-        <v>72.91780985484816</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N46" t="n">
-        <v>71.1839873158186</v>
+        <v>60.9327065053844</v>
       </c>
       <c r="O46" t="n">
-        <v>65.74993374837209</v>
+        <v>56.28121670205645</v>
       </c>
       <c r="P46" t="n">
-        <v>56.26042697378065</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.9518034317118</v>
+        <v>33.34231329062528</v>
       </c>
       <c r="R46" t="n">
-        <v>20.91582019034269</v>
+        <v>17.90371094728396</v>
       </c>
       <c r="S46" t="n">
-        <v>8.106677578828736</v>
+        <v>6.939226422552235</v>
       </c>
       <c r="T46" t="n">
-        <v>1.987552666692491</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02537301276628716</v>
+        <v>0.02171901853693974</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>10.4015149858013</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>5.276230697595576</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>18.86962892114946</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
